--- a/data/doctorsData.xlsx
+++ b/data/doctorsData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sushma Voleti\apolloHospitals\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\apollo-hospitals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0AC25E-3A85-489E-A42D-E69A164BBC62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E127F5FE-AE64-423E-9D53-34222664E7BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="863">
   <si>
     <t>Neurology</t>
   </si>
@@ -3195,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB980"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D67" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10709,9 +10709,7 @@
       <c r="I98" s="14">
         <v>9</v>
       </c>
-      <c r="J98" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J98" s="13"/>
       <c r="K98" s="1" t="s">
         <v>183</v>
       </c>
@@ -10777,9 +10775,7 @@
       <c r="I99" s="14">
         <v>4</v>
       </c>
-      <c r="J99" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J99" s="13"/>
       <c r="K99" s="1" t="s">
         <v>183</v>
       </c>
@@ -10841,9 +10837,7 @@
       <c r="I100" s="14">
         <v>9</v>
       </c>
-      <c r="J100" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J100" s="13"/>
       <c r="K100" s="1" t="s">
         <v>183</v>
       </c>
@@ -10905,9 +10899,7 @@
       <c r="I101" s="14">
         <v>7</v>
       </c>
-      <c r="J101" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J101" s="13"/>
       <c r="K101" s="1" t="s">
         <v>183</v>
       </c>
@@ -10971,9 +10963,7 @@
       <c r="I102" s="14">
         <v>6</v>
       </c>
-      <c r="J102" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J102" s="13"/>
       <c r="K102" s="1" t="s">
         <v>183</v>
       </c>
@@ -11037,9 +11027,7 @@
       <c r="I103" s="14">
         <v>6</v>
       </c>
-      <c r="J103" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J103" s="13"/>
       <c r="K103" s="1" t="s">
         <v>183</v>
       </c>

--- a/data/doctorsData.xlsx
+++ b/data/doctorsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sushma Voleti\apolloHospitals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0AC25E-3A85-489E-A42D-E69A164BBC62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29D804-6DDE-495F-BE3B-15D943B045DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="856">
   <si>
     <t>Neurology</t>
   </si>
@@ -659,16 +659,10 @@
     <t>Oncology</t>
   </si>
   <si>
-    <t xml:space="preserve">General Surgeon </t>
-  </si>
-  <si>
     <t>CTVS</t>
   </si>
   <si>
     <t>Gastroenterology/ GI Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulmonology/ Respiratory Medicine </t>
   </si>
   <si>
     <t>Pulmonology/ Respiratory Medicine</t>
@@ -798,9 +792,6 @@
     <t>English,Tamil</t>
   </si>
   <si>
-    <t>Ctvs</t>
-  </si>
-  <si>
     <t>MS,M.Ch (Thoracic Surgery)</t>
   </si>
   <si>
@@ -1012,9 +1003,6 @@
   </si>
   <si>
     <t>drkrishnamoorthy_k@apollohospitals.com</t>
-  </si>
-  <si>
-    <t>Orthopedics</t>
   </si>
   <si>
     <t>MBBS, D.Ortho, DNB(Ortho)</t>
@@ -1040,9 +1028,6 @@
     <t>English,Hindi,Telugu</t>
   </si>
   <si>
-    <t>Obstetrics And Gynaecology</t>
-  </si>
-  <si>
     <t xml:space="preserve">MBBS, MD (Obs and Gynae), DNB, MNAMS, DFFP, FRCOG (UK), </t>
   </si>
   <si>
@@ -1170,9 +1155,6 @@
 • ISG Systopic award at 49th Annual conference of the Indian Society of Gastroenterology, September 2008,Delhi</t>
   </si>
   <si>
-    <t>Gastroenterology/ Gi Medicine</t>
-  </si>
-  <si>
     <t>MBBS, DM</t>
   </si>
   <si>
@@ -1320,9 +1302,6 @@
     <t>drvenkatakarthikeyan_c@apollohospitals.com</t>
   </si>
   <si>
-    <t>Ent</t>
-  </si>
-  <si>
     <t>MS(AIIMS), DNB FELLOWSHIP(USA)</t>
   </si>
   <si>
@@ -1745,9 +1724,6 @@
     <t>MD - General Medicine</t>
   </si>
   <si>
-    <t>Internal medicine</t>
-  </si>
-  <si>
     <t>DNB - Family Medicine</t>
   </si>
   <si>
@@ -2673,6 +2649,9 @@
   </si>
   <si>
     <t>MALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Surgery </t>
   </si>
 </sst>
 </file>
@@ -3195,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB980"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="J61" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3226,7 +3205,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>15</v>
@@ -3241,7 +3220,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>19</v>
@@ -3256,31 +3235,31 @@
         <v>21</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>627</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>23</v>
@@ -3289,7 +3268,7 @@
         <v>24</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="X1" s="7"/>
       <c r="Y1" s="6" t="s">
@@ -3310,10 +3289,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
@@ -3323,7 +3302,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
@@ -3338,25 +3317,25 @@
         <v>184</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P2" s="1">
         <v>500033</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S2" s="1">
         <v>800</v>
@@ -3371,13 +3350,13 @@
         <v>33</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -3388,10 +3367,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>35</v>
@@ -3401,7 +3380,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>37</v>
@@ -3416,25 +3395,25 @@
         <v>185</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P3" s="1">
         <v>500033</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S3" s="1">
         <v>1000</v>
@@ -3449,20 +3428,20 @@
         <v>38</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -3470,10 +3449,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>40</v>
@@ -3483,7 +3462,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>42</v>
@@ -3498,25 +3477,25 @@
         <v>186</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P4" s="1">
         <v>500033</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S4" s="1">
         <v>800</v>
@@ -3529,20 +3508,20 @@
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="9" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3550,10 +3529,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -3565,7 +3544,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>46</v>
@@ -3580,25 +3559,25 @@
         <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P5" s="1">
         <v>500033</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S5" s="1">
         <v>800</v>
@@ -3611,20 +3590,20 @@
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="X5" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3632,10 +3611,10 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>48</v>
@@ -3645,7 +3624,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>50</v>
@@ -3660,25 +3639,25 @@
         <v>183</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P6" s="1">
         <v>500033</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S6" s="1">
         <v>800</v>
@@ -3691,20 +3670,20 @@
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3712,10 +3691,10 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>52</v>
@@ -3725,7 +3704,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>53</v>
@@ -3740,25 +3719,25 @@
         <v>183</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P7" s="1">
         <v>500033</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S7" s="1">
         <v>800</v>
@@ -3773,18 +3752,18 @@
         <v>54</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -3792,10 +3771,10 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>56</v>
@@ -3807,7 +3786,7 @@
         <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>59</v>
@@ -3822,25 +3801,25 @@
         <v>183</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P8" s="1">
         <v>500033</v>
       </c>
       <c r="Q8" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S8" s="1">
         <v>1400</v>
@@ -3853,18 +3832,18 @@
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3872,10 +3851,10 @@
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>61</v>
@@ -3887,7 +3866,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>37</v>
@@ -3902,25 +3881,25 @@
         <v>183</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P9" s="1">
         <v>500033</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S9" s="1">
         <v>1000</v>
@@ -3933,20 +3912,20 @@
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -3954,10 +3933,10 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>64</v>
@@ -3967,7 +3946,7 @@
         <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>66</v>
@@ -3982,25 +3961,25 @@
         <v>185</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P10" s="1">
         <v>500033</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S10" s="1">
         <v>1000</v>
@@ -4015,18 +3994,18 @@
         <v>67</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -4034,10 +4013,10 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>69</v>
@@ -4049,7 +4028,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>71</v>
@@ -4064,25 +4043,25 @@
         <v>183</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P11" s="1">
         <v>500033</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S11" s="1">
         <v>800</v>
@@ -4095,18 +4074,18 @@
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -4114,10 +4093,10 @@
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>73</v>
@@ -4127,7 +4106,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>75</v>
@@ -4136,31 +4115,31 @@
         <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>189</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P12" s="1">
         <v>500033</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S12" s="1">
         <v>600</v>
@@ -4173,20 +4152,20 @@
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -4194,10 +4173,10 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>78</v>
@@ -4207,7 +4186,7 @@
         <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>80</v>
@@ -4216,31 +4195,31 @@
         <v>20</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>188</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P13" s="1">
         <v>500033</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S13" s="1">
         <v>1000</v>
@@ -4253,18 +4232,18 @@
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4272,10 +4251,10 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>76</v>
@@ -4285,7 +4264,7 @@
         <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>83</v>
@@ -4300,25 +4279,25 @@
         <v>190</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P14" s="1">
         <v>500033</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S14" s="1">
         <v>700</v>
@@ -4333,20 +4312,20 @@
         <v>84</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4354,10 +4333,10 @@
         <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>86</v>
@@ -4369,7 +4348,7 @@
         <v>87</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>88</v>
@@ -4384,25 +4363,25 @@
         <v>183</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P15" s="1">
         <v>500033</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S15" s="1">
         <v>800</v>
@@ -4417,20 +4396,20 @@
         <v>89</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AB15" s="8" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4438,10 +4417,10 @@
         <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>91</v>
@@ -4453,7 +4432,7 @@
         <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>93</v>
@@ -4468,25 +4447,25 @@
         <v>183</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P16" s="1">
         <v>500033</v>
       </c>
       <c r="Q16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S16" s="1">
         <v>500</v>
@@ -4499,18 +4478,18 @@
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4518,10 +4497,10 @@
         <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>95</v>
@@ -4531,7 +4510,7 @@
         <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>96</v>
@@ -4546,25 +4525,25 @@
         <v>191</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P17" s="1">
         <v>500033</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S17" s="1">
         <v>1000</v>
@@ -4579,20 +4558,20 @@
         <v>97</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AB17" s="8" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4600,10 +4579,10 @@
         <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>99</v>
@@ -4615,7 +4594,7 @@
         <v>101</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>102</v>
@@ -4630,25 +4609,25 @@
         <v>192</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P18" s="1">
         <v>500033</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S18" s="1">
         <v>800</v>
@@ -4663,18 +4642,18 @@
         <v>54</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4682,10 +4661,10 @@
         <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>104</v>
@@ -4697,7 +4676,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>106</v>
@@ -4712,25 +4691,25 @@
         <v>184</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P19" s="1">
         <v>500033</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S19" s="1">
         <v>1000</v>
@@ -4743,20 +4722,20 @@
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4764,10 +4743,10 @@
         <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>108</v>
@@ -4779,7 +4758,7 @@
         <v>110</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>111</v>
@@ -4794,25 +4773,25 @@
         <v>193</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P20" s="1">
         <v>500033</v>
       </c>
       <c r="Q20" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S20" s="1">
         <v>1000</v>
@@ -4827,20 +4806,20 @@
         <v>112</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4848,10 +4827,10 @@
         <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>114</v>
@@ -4863,7 +4842,7 @@
         <v>115</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>116</v>
@@ -4872,31 +4851,31 @@
         <v>10</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>188</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P21" s="1">
         <v>500033</v>
       </c>
       <c r="Q21" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S21" s="1">
         <v>900</v>
@@ -4909,20 +4888,20 @@
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4930,10 +4909,10 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>118</v>
@@ -4945,7 +4924,7 @@
         <v>120</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>121</v>
@@ -4954,31 +4933,31 @@
         <v>22</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>12</v>
+        <v>848</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>184</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P22" s="1">
         <v>500033</v>
       </c>
       <c r="Q22" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S22" s="1">
         <v>800</v>
@@ -4991,18 +4970,18 @@
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5010,10 +4989,10 @@
         <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>123</v>
@@ -5023,7 +5002,7 @@
         <v>124</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>125</v>
@@ -5032,31 +5011,31 @@
         <v>11</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>194</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P23" s="1">
         <v>500033</v>
       </c>
       <c r="Q23" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S23" s="1">
         <v>1000</v>
@@ -5069,20 +5048,20 @@
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5090,10 +5069,10 @@
         <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>127</v>
@@ -5103,7 +5082,7 @@
         <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>129</v>
@@ -5112,31 +5091,31 @@
         <v>17</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>183</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P24" s="1">
         <v>500033</v>
       </c>
       <c r="Q24" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S24" s="1">
         <v>1000</v>
@@ -5149,20 +5128,20 @@
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5170,10 +5149,10 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>131</v>
@@ -5183,7 +5162,7 @@
         <v>132</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>133</v>
@@ -5192,31 +5171,31 @@
         <v>32</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>183</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P25" s="1">
         <v>500033</v>
       </c>
       <c r="Q25" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S25" s="1">
         <v>1500</v>
@@ -5231,20 +5210,20 @@
         <v>134</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,10 +5231,10 @@
         <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>136</v>
@@ -5267,7 +5246,7 @@
         <v>45</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>138</v>
@@ -5282,25 +5261,25 @@
         <v>188</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P26" s="1">
         <v>500033</v>
       </c>
       <c r="Q26" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S26" s="1">
         <v>800</v>
@@ -5315,20 +5294,20 @@
         <v>139</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5336,10 +5315,10 @@
         <v>140</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>141</v>
@@ -5349,7 +5328,7 @@
         <v>45</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>142</v>
@@ -5358,31 +5337,31 @@
         <v>9</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>188</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P27" s="1">
         <v>500033</v>
       </c>
       <c r="Q27" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S27" s="1">
         <v>800</v>
@@ -5397,18 +5376,18 @@
         <v>143</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5416,10 +5395,10 @@
         <v>144</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>145</v>
@@ -5429,7 +5408,7 @@
         <v>146</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>147</v>
@@ -5444,25 +5423,25 @@
         <v>183</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P28" s="1">
         <v>500033</v>
       </c>
       <c r="Q28" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S28" s="1">
         <v>700</v>
@@ -5475,20 +5454,20 @@
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AB28" s="8" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5496,10 +5475,10 @@
         <v>148</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>149</v>
@@ -5509,7 +5488,7 @@
         <v>150</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>151</v>
@@ -5524,25 +5503,25 @@
         <v>195</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P29" s="1">
         <v>500033</v>
       </c>
       <c r="Q29" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S29" s="1">
         <v>1000</v>
@@ -5555,18 +5534,18 @@
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5574,10 +5553,10 @@
         <v>152</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>153</v>
@@ -5589,7 +5568,7 @@
         <v>154</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>155</v>
@@ -5604,25 +5583,25 @@
         <v>183</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P30" s="1">
         <v>500033</v>
       </c>
       <c r="Q30" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S30" s="1">
         <v>700</v>
@@ -5637,18 +5616,18 @@
         <v>156</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5656,10 +5635,10 @@
         <v>157</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>158</v>
@@ -5671,7 +5650,7 @@
         <v>159</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>160</v>
@@ -5686,25 +5665,25 @@
         <v>183</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P31" s="1">
         <v>500033</v>
       </c>
       <c r="Q31" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S31" s="1">
         <v>600</v>
@@ -5717,20 +5696,20 @@
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5738,10 +5717,10 @@
         <v>161</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>162</v>
@@ -5751,7 +5730,7 @@
         <v>36</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>163</v>
@@ -5766,25 +5745,25 @@
         <v>183</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P32" s="1">
         <v>500033</v>
       </c>
       <c r="Q32" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S32" s="1">
         <v>600</v>
@@ -5797,20 +5776,20 @@
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AB32" s="8" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5818,10 +5797,10 @@
         <v>164</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>165</v>
@@ -5831,7 +5810,7 @@
         <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>166</v>
@@ -5846,25 +5825,25 @@
         <v>182</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P33" s="1">
         <v>500033</v>
       </c>
       <c r="Q33" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S33" s="1">
         <v>600</v>
@@ -5877,20 +5856,20 @@
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AB33" s="8" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5898,10 +5877,10 @@
         <v>167</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -5911,7 +5890,7 @@
         <v>168</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>169</v>
@@ -5926,25 +5905,25 @@
         <v>187</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P34" s="1">
         <v>500033</v>
       </c>
       <c r="Q34" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S34" s="1">
         <v>500</v>
@@ -5957,18 +5936,18 @@
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5976,10 +5955,10 @@
         <v>170</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>171</v>
@@ -5989,7 +5968,7 @@
         <v>172</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>173</v>
@@ -5998,31 +5977,31 @@
         <v>11</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>196</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P35" s="1">
         <v>500033</v>
       </c>
       <c r="Q35" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S35" s="1">
         <v>1000</v>
@@ -6035,20 +6014,20 @@
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AB35" s="8" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6056,10 +6035,10 @@
         <v>174</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>175</v>
@@ -6069,7 +6048,7 @@
         <v>176</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>177</v>
@@ -6084,25 +6063,25 @@
         <v>194</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P36" s="1">
         <v>500033</v>
       </c>
       <c r="Q36" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R36" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S36" s="1">
         <v>800</v>
@@ -6115,18 +6094,18 @@
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6134,10 +6113,10 @@
         <v>178</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>179</v>
@@ -6147,7 +6126,7 @@
         <v>180</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>181</v>
@@ -6156,31 +6135,31 @@
         <v>5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>188</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P37" s="1">
         <v>500033</v>
       </c>
       <c r="Q37" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="S37" s="1">
         <v>800</v>
@@ -6193,66 +6172,66 @@
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="I38" s="1">
         <v>19</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S38" s="1">
         <v>1799</v>
@@ -6264,47 +6243,47 @@
         <v>58794</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="I39" s="1">
         <v>11</v>
@@ -6313,22 +6292,22 @@
         <v>5</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S39" s="1">
         <v>1299</v>
@@ -6341,44 +6320,44 @@
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AA39" s="11"/>
       <c r="AB39" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="I40" s="1">
         <v>11</v>
@@ -6387,22 +6366,22 @@
         <v>5</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S40" s="1">
         <v>999</v>
@@ -6414,49 +6393,49 @@
         <v>51840</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="AA40" s="11"/>
       <c r="AB40" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="I41" s="1">
         <v>22</v>
@@ -6465,22 +6444,22 @@
         <v>5</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S41" s="1">
         <v>1299</v>
@@ -6493,44 +6472,44 @@
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AA41" s="11"/>
       <c r="AB41" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="42" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="I42" s="1">
         <v>16</v>
@@ -6539,22 +6518,22 @@
         <v>5</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S42" s="1">
         <v>1299</v>
@@ -6567,44 +6546,44 @@
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AA42" s="11"/>
       <c r="AB42" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="I43" s="1">
         <v>25</v>
@@ -6613,22 +6592,22 @@
         <v>5</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S43" s="1">
         <v>1299</v>
@@ -6641,41 +6620,41 @@
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA43" s="11"/>
       <c r="AB43" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>163</v>
@@ -6687,22 +6666,22 @@
         <v>5</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S44" s="2">
         <v>1299</v>
@@ -6715,46 +6694,46 @@
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AA44" s="11"/>
       <c r="AB44" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I45" s="2">
         <v>20</v>
@@ -6763,22 +6742,22 @@
         <v>5</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S45" s="2">
         <v>1099</v>
@@ -6791,44 +6770,44 @@
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AA45" s="11"/>
       <c r="AB45" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="I46" s="2">
         <v>12</v>
@@ -6837,22 +6816,22 @@
         <v>5</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S46" s="2">
         <v>1299</v>
@@ -6865,46 +6844,46 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="I47" s="2">
         <v>45</v>
@@ -6913,22 +6892,22 @@
         <v>1</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S47" s="2">
         <v>1299</v>
@@ -6941,44 +6920,44 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AA47" s="1"/>
       <c r="AB47" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I48" s="2">
         <v>23</v>
@@ -6987,22 +6966,22 @@
         <v>1</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S48" s="2">
         <v>1099</v>
@@ -7015,44 +6994,44 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I49" s="2">
         <v>9</v>
@@ -7061,22 +7040,22 @@
         <v>1</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S49" s="2">
         <v>1299</v>
@@ -7089,44 +7068,44 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AA49" s="1"/>
       <c r="AB49" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I50" s="2">
         <v>15</v>
@@ -7135,22 +7114,22 @@
         <v>1</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S50" s="2">
         <v>1999</v>
@@ -7163,44 +7142,44 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AA50" s="1"/>
       <c r="AB50" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I51" s="2">
         <v>30</v>
@@ -7209,22 +7188,22 @@
         <v>1</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S51" s="2">
         <v>1799</v>
@@ -7237,46 +7216,46 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="I52" s="2">
         <v>26</v>
@@ -7285,22 +7264,22 @@
         <v>9</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S52" s="2">
         <v>1899</v>
@@ -7313,68 +7292,68 @@
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AA52" s="1"/>
       <c r="AB52" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="I53" s="2">
         <v>18</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>413</v>
+        <v>545</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S53" s="2">
         <v>1299</v>
@@ -7387,68 +7366,68 @@
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AA53" s="1"/>
       <c r="AB53" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="I54" s="2">
         <v>15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>413</v>
+        <v>545</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S54" s="2">
         <v>1299</v>
@@ -7460,73 +7439,73 @@
         <v>65018</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="I55" s="2">
         <v>36</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>413</v>
+        <v>545</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S55" s="2">
         <v>1299</v>
@@ -7538,71 +7517,71 @@
         <v>38004</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I56" s="2">
         <v>41</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>413</v>
+        <v>545</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S56" s="2">
         <v>1099</v>
@@ -7614,69 +7593,69 @@
         <v>22391</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AA56" s="1"/>
       <c r="AB56" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I57" s="2">
         <v>18</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>413</v>
+        <v>545</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S57" s="2">
         <v>1099</v>
@@ -7689,70 +7668,70 @@
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AA57" s="1"/>
       <c r="AB57" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="I58" s="2">
         <v>16</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>395</v>
+        <v>221</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S58" s="2">
         <v>1099</v>
@@ -7764,73 +7743,73 @@
         <v>106488</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AA58" s="1"/>
       <c r="AB58" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I59" s="2">
         <v>16</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>395</v>
+        <v>221</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S59" s="2">
         <v>1099</v>
@@ -7842,71 +7821,71 @@
         <v>57329</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AA59" s="1"/>
       <c r="AB59" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="I60" s="2">
         <v>25</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>395</v>
+        <v>221</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S60" s="2">
         <v>1299</v>
@@ -7918,71 +7897,71 @@
         <v>41016</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA60" s="1"/>
       <c r="AB60" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I61" s="2">
         <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S61" s="2">
         <v>1299</v>
@@ -7994,73 +7973,73 @@
         <v>61307</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AA61" s="1"/>
       <c r="AB61" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="I62" s="2">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>365</v>
+        <v>201</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S62" s="2">
         <v>1299</v>
@@ -8073,70 +8052,70 @@
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AA62" s="1"/>
       <c r="AB62" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I63" s="2">
         <v>17</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>365</v>
+        <v>201</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S63" s="2">
         <v>1299</v>
@@ -8148,71 +8127,71 @@
         <v>42477</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AA63" s="1"/>
       <c r="AB63" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="I64" s="2">
         <v>32</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>365</v>
+        <v>201</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S64" s="2">
         <v>1299</v>
@@ -8224,69 +8203,69 @@
         <v>42970</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AA64" s="1"/>
       <c r="AB64" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="I65" s="2">
         <v>10</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>365</v>
+        <v>201</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S65" s="2">
         <v>1099</v>
@@ -8298,47 +8277,47 @@
         <v>69332</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AA65" s="1"/>
       <c r="AB65" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I66" s="2">
         <v>22</v>
@@ -8347,22 +8326,22 @@
         <v>7</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S66" s="2">
         <v>1099</v>
@@ -8374,47 +8353,47 @@
         <v>73381</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AA66" s="1"/>
       <c r="AB66" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I67" s="2">
         <v>8</v>
@@ -8423,22 +8402,22 @@
         <v>7</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S67" s="2">
         <v>1299</v>
@@ -8450,47 +8429,47 @@
         <v>80215</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AA67" s="1"/>
       <c r="AB67" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I68" s="2">
         <v>5</v>
@@ -8499,22 +8478,22 @@
         <v>7</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S68" s="2">
         <v>1299</v>
@@ -8527,44 +8506,44 @@
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA68" s="1"/>
       <c r="AB68" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I69" s="2">
         <v>20</v>
@@ -8573,22 +8552,22 @@
         <v>7</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S69" s="2">
         <v>1099</v>
@@ -8600,47 +8579,47 @@
         <v>73351</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="Z69" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AA69" s="1"/>
       <c r="AB69" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I70" s="2">
         <v>30</v>
@@ -8649,22 +8628,22 @@
         <v>0</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S70" s="2">
         <v>1299</v>
@@ -8676,71 +8655,71 @@
         <v>41130</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="Z70" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AA70" s="1"/>
       <c r="AB70" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I71" s="2">
         <v>17</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S71" s="2">
         <v>1299</v>
@@ -8752,71 +8731,71 @@
         <v>58956</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="Z71" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AA71" s="1"/>
       <c r="AB71" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="72" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I72" s="2">
         <v>19</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S72" s="2">
         <v>799</v>
@@ -8828,71 +8807,71 @@
         <v>57133</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AA72" s="1"/>
       <c r="AB72" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I73" s="2">
         <v>25</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>315</v>
+        <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S73" s="2">
         <v>1299</v>
@@ -8905,44 +8884,44 @@
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AA73" s="1"/>
       <c r="AB73" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I74" s="2">
         <v>11</v>
@@ -8951,22 +8930,22 @@
         <v>11</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S74" s="2">
         <v>1299</v>
@@ -8979,44 +8958,44 @@
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="AA74" s="1"/>
       <c r="AB74" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I75" s="2">
         <v>11</v>
@@ -9025,22 +9004,22 @@
         <v>11</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S75" s="2">
         <v>1299</v>
@@ -9052,49 +9031,49 @@
         <v>68100</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AA75" s="1"/>
       <c r="AB75" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I76" s="2">
         <v>13</v>
@@ -9103,22 +9082,22 @@
         <v>11</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S76" s="2">
         <v>1299</v>
@@ -9130,73 +9109,73 @@
         <v>65768</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="Z76" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AA76" s="1"/>
       <c r="AB76" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I77" s="2">
         <v>15</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S77" s="2">
         <v>1299</v>
@@ -9208,71 +9187,71 @@
         <v>57144</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="Z77" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AA77" s="1"/>
       <c r="AB77" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="78" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I78" s="2">
         <v>9</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S78" s="2">
         <v>1099</v>
@@ -9284,71 +9263,71 @@
         <v>60948</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="Z78" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AA78" s="1"/>
       <c r="AB78" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I79" s="2">
         <v>35</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S79" s="2">
         <v>1499</v>
@@ -9360,73 +9339,73 @@
         <v>32916</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="Z79" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AA79" s="1"/>
       <c r="AB79" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I80" s="2">
         <v>35</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S80" s="2">
         <v>1299</v>
@@ -9438,71 +9417,71 @@
         <v>24453</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AA80" s="1"/>
       <c r="AB80" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I81" s="2">
         <v>20</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S81" s="2">
         <v>999</v>
@@ -9514,71 +9493,71 @@
         <v>61175</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="X81" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="Z81" s="2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="AA81" s="1"/>
       <c r="AB81" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I82" s="2">
         <v>12</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S82" s="2">
         <v>1099</v>
@@ -9590,37 +9569,37 @@
         <v>72099</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="Z82" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AA82" s="1"/>
       <c r="AB82" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>36</v>
@@ -9629,34 +9608,34 @@
         <v>45</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I83" s="2">
         <v>48</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S83" s="2">
         <v>1099</v>
@@ -9668,71 +9647,71 @@
         <v>70775</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="Z83" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AA83" s="1"/>
       <c r="AB83" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I84" s="2">
         <v>15</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S84" s="2">
         <v>1099</v>
@@ -9744,47 +9723,47 @@
         <v>21173</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="Z84" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA84" s="1"/>
       <c r="AB84" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I85" s="2">
         <v>12</v>
@@ -9793,22 +9772,22 @@
         <v>6</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S85" s="2">
         <v>1299</v>
@@ -9820,47 +9799,47 @@
         <v>69259</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="Z85" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AA85" s="1"/>
       <c r="AB85" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I86" s="2">
         <v>15</v>
@@ -9869,22 +9848,22 @@
         <v>6</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S86" s="2">
         <v>1299</v>
@@ -9896,71 +9875,71 @@
         <v>55311</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="Z86" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AA86" s="1"/>
       <c r="AB86" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I87" s="2">
         <v>22</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S87" s="2">
         <v>1299</v>
@@ -9972,49 +9951,49 @@
         <v>40749</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="Z87" s="2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="AA87" s="1"/>
       <c r="AB87" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="I88" s="1">
         <v>1</v>
@@ -10032,57 +10011,57 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S88" s="1">
         <v>499</v>
       </c>
       <c r="T88" s="3"/>
       <c r="U88" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="AA88" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AB88" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="I89" s="1">
         <v>5</v>
@@ -10100,7 +10079,7 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S89" s="1">
         <v>499</v>
@@ -10111,54 +10090,54 @@
       </c>
       <c r="V89" s="1"/>
       <c r="W89" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="AA89" s="3" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AB89" s="8" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>183</v>
@@ -10170,47 +10149,47 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S90" s="1">
         <v>499</v>
       </c>
       <c r="T90" s="3"/>
       <c r="U90" s="1" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="V90" s="1"/>
       <c r="W90" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="AA90" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="AB90" s="8" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>36</v>
@@ -10219,16 +10198,16 @@
         <v>45</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="I91" s="1">
         <v>6</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>183</v>
@@ -10240,7 +10219,7 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S91" s="1">
         <v>499</v>
@@ -10251,54 +10230,54 @@
       </c>
       <c r="V91" s="1"/>
       <c r="W91" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="AA91" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AB91" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>554</v>
+        <v>382</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>183</v>
@@ -10310,65 +10289,65 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S92" s="1">
         <v>499</v>
       </c>
       <c r="T92" s="3"/>
       <c r="U92" s="1" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="V92" s="1"/>
       <c r="W92" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="AA92" s="3" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AB92" s="8" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="I93" s="1">
         <v>8</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>554</v>
+        <v>382</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>183</v>
@@ -10380,7 +10359,7 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S93" s="1">
         <v>499</v>
@@ -10391,50 +10370,50 @@
       </c>
       <c r="V93" s="1"/>
       <c r="W93" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="AA93" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="AB93" s="8" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I94" s="1">
         <v>12</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>183</v>
@@ -10446,7 +10425,7 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S94" s="1">
         <v>499</v>
@@ -10457,46 +10436,46 @@
       </c>
       <c r="V94" s="1"/>
       <c r="W94" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="X94" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="Z94" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="AA94" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AB94" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="I95" s="1">
         <v>3</v>
@@ -10514,7 +10493,7 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S95" s="1">
         <v>499</v>
@@ -10523,36 +10502,36 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AA95" s="3" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AB95" s="8" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>149</v>
@@ -10561,10 +10540,10 @@
         <v>45</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="I96" s="1">
         <v>6</v>
@@ -10582,44 +10561,44 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S96" s="1">
         <v>499</v>
       </c>
       <c r="T96" s="3"/>
       <c r="U96" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="V96" s="1"/>
       <c r="W96" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="AA96" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="AB96" s="8" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>114</v>
@@ -10628,13 +10607,13 @@
         <v>36</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="I97" s="1">
         <v>2</v>
@@ -10652,66 +10631,64 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S97" s="1">
         <v>499</v>
       </c>
       <c r="T97" s="3"/>
       <c r="U97" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="V97" s="1"/>
       <c r="W97" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="AA97" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AB97" s="8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I98" s="14">
         <v>9</v>
       </c>
-      <c r="J98" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J98" s="13"/>
       <c r="K98" s="1" t="s">
         <v>183</v>
       </c>
@@ -10722,64 +10699,62 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S98" s="1">
         <v>499</v>
       </c>
       <c r="T98" s="14"/>
       <c r="U98" s="14" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="V98" s="13"/>
       <c r="W98" s="14" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="Z98" s="14" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AA98" s="14"/>
       <c r="AB98" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I99" s="14">
         <v>4</v>
       </c>
-      <c r="J99" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J99" s="13"/>
       <c r="K99" s="1" t="s">
         <v>183</v>
       </c>
@@ -10790,7 +10765,7 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S99" s="1">
         <v>499</v>
@@ -10799,51 +10774,49 @@
       <c r="U99" s="14"/>
       <c r="V99" s="13"/>
       <c r="W99" s="14" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y99" s="1" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="Z99" s="14" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AA99" s="14"/>
       <c r="AB99" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I100" s="14">
         <v>9</v>
       </c>
-      <c r="J100" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J100" s="13"/>
       <c r="K100" s="1" t="s">
         <v>183</v>
       </c>
@@ -10854,7 +10827,7 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S100" s="1">
         <v>499</v>
@@ -10863,51 +10836,49 @@
       <c r="U100" s="14"/>
       <c r="V100" s="13"/>
       <c r="W100" s="14" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="Z100" s="14" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="AA100" s="14"/>
       <c r="AB100" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I101" s="14">
         <v>7</v>
       </c>
-      <c r="J101" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J101" s="13"/>
       <c r="K101" s="1" t="s">
         <v>183</v>
       </c>
@@ -10918,7 +10889,7 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S101" s="1">
         <v>499</v>
@@ -10927,53 +10898,51 @@
       <c r="U101" s="14"/>
       <c r="V101" s="13"/>
       <c r="W101" s="14" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="Z101" s="14" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="AA101" s="14"/>
       <c r="AB101" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I102" s="14">
         <v>6</v>
       </c>
-      <c r="J102" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J102" s="13"/>
       <c r="K102" s="1" t="s">
         <v>183</v>
       </c>
@@ -10984,7 +10953,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S102" s="1">
         <v>499</v>
@@ -10993,53 +10962,51 @@
       <c r="U102" s="14"/>
       <c r="V102" s="13"/>
       <c r="W102" s="14" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="X102" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y102" s="1" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="Z102" s="14" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="AA102" s="14"/>
       <c r="AB102" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="I103" s="14">
         <v>6</v>
       </c>
-      <c r="J103" s="13" t="s">
-        <v>556</v>
-      </c>
+      <c r="J103" s="13"/>
       <c r="K103" s="1" t="s">
         <v>183</v>
       </c>
@@ -11050,7 +11017,7 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="S103" s="1">
         <v>499</v>
@@ -11059,20 +11026,20 @@
       <c r="U103" s="14"/>
       <c r="V103" s="13"/>
       <c r="W103" s="14" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="X103" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="Z103" s="14" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="AA103" s="14"/>
       <c r="AB103" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16379,7 +16346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346FE356-7A97-4B75-A94B-A47DAB32CB70}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16392,36 +16361,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16429,33 +16398,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16463,16 +16432,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16480,101 +16449,101 @@
         <v>9</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>554</v>
+        <v>382</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16582,16 +16551,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16599,16 +16568,16 @@
         <v>0</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -16616,16 +16585,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16633,16 +16602,16 @@
         <v>198</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16650,33 +16619,33 @@
         <v>199</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16684,16 +16653,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16701,16 +16670,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -16718,16 +16687,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16735,50 +16704,50 @@
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16786,33 +16755,33 @@
         <v>6</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>

--- a/data/doctorsData.xlsx
+++ b/data/doctorsData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sushma Voleti\apolloHospitals\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\apollo-hospitals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29D804-6DDE-495F-BE3B-15D943B045DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0881B684-A3A2-4F33-AA74-776D1BFF4F74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -1588,58 +1588,6 @@
     <t>Dr.Rajkumar Palaniappan</t>
   </si>
   <si>
-    <t>02:00PM - 03:00PM</t>
-  </si>
-  <si>
-    <t>11:00AM - 12:00PM</t>
-  </si>
-  <si>
-    <t>12:00PM - 01:00PM</t>
-  </si>
-  <si>
-    <t>01:00PM - 02:00PM</t>
-  </si>
-  <si>
-    <t>03:00PM - 04:00PM</t>
-  </si>
-  <si>
-    <t>10:00AM - 11:00AM</t>
-  </si>
-  <si>
-    <t>04:00PM - 05:00PM</t>
-  </si>
-  <si>
-    <t>05:00PM - 06:00PM</t>
-  </si>
-  <si>
-    <t>05:15PM - 06:15PM</t>
-  </si>
-  <si>
-    <t>02:30PM - 03:30PM</t>
-  </si>
-  <si>
-    <t>06:00PM - 07:00PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:00PM - 02:00 PM </t>
-  </si>
-  <si>
-    <t>10:00AM - 11:00AM
-02:00PM - 04:00PM</t>
-  </si>
-  <si>
-    <t>04:30PM - 05:30PM</t>
-  </si>
-  <si>
-    <t>03:30PM - 04:30PM</t>
-  </si>
-  <si>
-    <t>01:30PM - 02:30PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:30 PM - 06:30PM </t>
-  </si>
-  <si>
     <t>Dr. Ram Sushruth Pathuri</t>
   </si>
   <si>
@@ -1889,15 +1837,6 @@
     <t>dr.ajaykumar962@gmail.com</t>
   </si>
   <si>
-    <t>08:00 PM to 08:00 AM</t>
-  </si>
-  <si>
-    <t>08:00 AM to 04:00 PM</t>
-  </si>
-  <si>
-    <t>09:00 AM to 05:00 PM</t>
-  </si>
-  <si>
     <t>drrajeswari_n@apollohospitals.com</t>
   </si>
   <si>
@@ -1970,688 +1909,749 @@
     <t>MONDAY,TUESDAY,WEDNESDAY,THURSDAY,FRIDAY</t>
   </si>
   <si>
+    <t>+919849017435</t>
+  </si>
+  <si>
+    <t>+919866193953</t>
+  </si>
+  <si>
+    <t>+919849078839</t>
+  </si>
+  <si>
+    <t>+919246365400</t>
+  </si>
+  <si>
+    <t>+919849377722</t>
+  </si>
+  <si>
+    <t>+919848016226</t>
+  </si>
+  <si>
+    <t>+919849075972</t>
+  </si>
+  <si>
+    <t>+919848475788</t>
+  </si>
+  <si>
+    <t>+919848608970</t>
+  </si>
+  <si>
+    <t>+919908301691</t>
+  </si>
+  <si>
+    <t>+919848038668</t>
+  </si>
+  <si>
+    <t>+919866415551</t>
+  </si>
+  <si>
+    <t>+919959885937</t>
+  </si>
+  <si>
+    <t>+919959370666</t>
+  </si>
+  <si>
+    <t>+919000969645</t>
+  </si>
+  <si>
+    <t>+919866896555</t>
+  </si>
+  <si>
+    <t>+919573711837</t>
+  </si>
+  <si>
+    <t>+919441012035</t>
+  </si>
+  <si>
+    <t>+919866317666</t>
+  </si>
+  <si>
+    <t>+919490295100</t>
+  </si>
+  <si>
+    <t>+919553778899</t>
+  </si>
+  <si>
+    <t>+917382778899</t>
+  </si>
+  <si>
+    <t>+919848045810</t>
+  </si>
+  <si>
+    <t>+919000222666</t>
+  </si>
+  <si>
+    <t>+919985162807</t>
+  </si>
+  <si>
+    <t>+917337554400</t>
+  </si>
+  <si>
+    <t>+917093019404</t>
+  </si>
+  <si>
+    <t>+919000322220</t>
+  </si>
+  <si>
+    <t>+919391026973</t>
+  </si>
+  <si>
+    <t>+918106679447</t>
+  </si>
+  <si>
+    <t>+919848046785</t>
+  </si>
+  <si>
+    <t>+919600591982</t>
+  </si>
+  <si>
+    <t>+916301432462</t>
+  </si>
+  <si>
+    <t>+917731077771</t>
+  </si>
+  <si>
+    <t>+918142651326</t>
+  </si>
+  <si>
+    <t>+919566095660</t>
+  </si>
+  <si>
+    <t>+919840180337</t>
+  </si>
+  <si>
+    <t>+919962636462</t>
+  </si>
+  <si>
+    <t>+916587987085</t>
+  </si>
+  <si>
+    <t>+919840754132</t>
+  </si>
+  <si>
+    <t>+919841032624</t>
+  </si>
+  <si>
+    <t>+919840061262</t>
+  </si>
+  <si>
+    <t>+919841076010</t>
+  </si>
+  <si>
+    <t>+918056172261</t>
+  </si>
+  <si>
+    <t>+919884335390</t>
+  </si>
+  <si>
+    <t>+919840025810</t>
+  </si>
+  <si>
+    <t>+919840492326</t>
+  </si>
+  <si>
+    <t>+919486278468</t>
+  </si>
+  <si>
+    <t>+919840045500</t>
+  </si>
+  <si>
+    <t>+919840084225</t>
+  </si>
+  <si>
+    <t>+919445729069</t>
+  </si>
+  <si>
+    <t>+919841168387</t>
+  </si>
+  <si>
+    <t>+919840074422</t>
+  </si>
+  <si>
+    <t>+919282104050</t>
+  </si>
+  <si>
+    <t>+91745674374</t>
+  </si>
+  <si>
+    <t>+9198846 72092</t>
+  </si>
+  <si>
+    <t>+919940049327</t>
+  </si>
+  <si>
+    <t>+919841048004</t>
+  </si>
+  <si>
+    <t>+919840116712</t>
+  </si>
+  <si>
+    <t>+919840064496</t>
+  </si>
+  <si>
+    <t>+919840026206</t>
+  </si>
+  <si>
+    <t>+919940421395</t>
+  </si>
+  <si>
+    <t>+919176329412</t>
+  </si>
+  <si>
+    <t>+919840073880</t>
+  </si>
+  <si>
+    <t>+919677116339</t>
+  </si>
+  <si>
+    <t>+918197667110</t>
+  </si>
+  <si>
+    <t>+918939526822</t>
+  </si>
+  <si>
+    <t>+919940310387</t>
+  </si>
+  <si>
+    <t>+914428296913</t>
+  </si>
+  <si>
+    <t>+919840014416</t>
+  </si>
+  <si>
+    <t>+916854556542</t>
+  </si>
+  <si>
+    <t>+919840078970</t>
+  </si>
+  <si>
+    <t>+919566222522</t>
+  </si>
+  <si>
+    <t>+919840055552</t>
+  </si>
+  <si>
+    <t>+919840191914</t>
+  </si>
+  <si>
+    <t>+919500056973</t>
+  </si>
+  <si>
+    <t>+919840820053</t>
+  </si>
+  <si>
+    <t>+9198410 16727</t>
+  </si>
+  <si>
+    <t>+919840130413</t>
+  </si>
+  <si>
+    <t>+919677277955</t>
+  </si>
+  <si>
+    <t>+9198400 64123</t>
+  </si>
+  <si>
+    <t>+9191779897902</t>
+  </si>
+  <si>
+    <t>+919445561466</t>
+  </si>
+  <si>
+    <t>+919840014421</t>
+  </si>
+  <si>
+    <t>+919841072234</t>
+  </si>
+  <si>
+    <t>+917893820645</t>
+  </si>
+  <si>
+    <t>+917997818181</t>
+  </si>
+  <si>
+    <t>+919003154148</t>
+  </si>
+  <si>
+    <t>+919110394278</t>
+  </si>
+  <si>
+    <t>+919849494904</t>
+  </si>
+  <si>
+    <t>+917893765888</t>
+  </si>
+  <si>
+    <t>+919505008999</t>
+  </si>
+  <si>
+    <t>+919700329392</t>
+  </si>
+  <si>
+    <t>+918074302522</t>
+  </si>
+  <si>
+    <t>+919550630511</t>
+  </si>
+  <si>
+    <t>+919949506265</t>
+  </si>
+  <si>
+    <t>+919533910003</t>
+  </si>
+  <si>
+    <t>+917569073339</t>
+  </si>
+  <si>
+    <t>+918466046037</t>
+  </si>
+  <si>
+    <t>+919989827531</t>
+  </si>
+  <si>
+    <t>+919966344889</t>
+  </si>
+  <si>
+    <t>+919652055256</t>
+  </si>
+  <si>
+    <t>+916281087085</t>
+  </si>
+  <si>
+    <t>+919652958404</t>
+  </si>
+  <si>
+    <t>+919866200788</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>+918374650986</t>
+  </si>
+  <si>
+    <t>+917989664049</t>
+  </si>
+  <si>
+    <t>+918008452222</t>
+  </si>
+  <si>
+    <t>+916303755031</t>
+  </si>
+  <si>
+    <t>+919948534931</t>
+  </si>
+  <si>
+    <t>+918367299655</t>
+  </si>
+  <si>
+    <t>+919397881604</t>
+  </si>
+  <si>
+    <t>+919652223117</t>
+  </si>
+  <si>
+    <t>+919440354711</t>
+  </si>
+  <si>
+    <t>+919949551501</t>
+  </si>
+  <si>
+    <t>+918142252991</t>
+  </si>
+  <si>
+    <t>+919052154123</t>
+  </si>
+  <si>
+    <t>+919866717924</t>
+  </si>
+  <si>
+    <t>APOLLO</t>
+  </si>
+  <si>
+    <t>PAYROLL</t>
+  </si>
+  <si>
+    <t>JUNIOR</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>User Friendly Nomenclature</t>
+  </si>
+  <si>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>Specialist Plural</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Obesity, Fat, Weight Loss</t>
+  </si>
+  <si>
+    <t>Bariatrician</t>
+  </si>
+  <si>
+    <t>Bariatricians</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/specialty.png</t>
+  </si>
+  <si>
+    <t>Heart &amp; BP</t>
+  </si>
+  <si>
+    <t>Cardiologist</t>
+  </si>
+  <si>
+    <t>Cardiologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_cardiology.png</t>
+  </si>
+  <si>
+    <t>Heart Surgery</t>
+  </si>
+  <si>
+    <t>Cardio-thoracic surgeon</t>
+  </si>
+  <si>
+    <t>Cardio-thoracic surgeons</t>
+  </si>
+  <si>
+    <t>Skin &amp; Hair</t>
+  </si>
+  <si>
+    <t>Dermatologist</t>
+  </si>
+  <si>
+    <t>Dermatologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_dermatology.png</t>
+  </si>
+  <si>
+    <t>Diabetes, Thyroid, Hormonal</t>
+  </si>
+  <si>
+    <t>Endocrinologist</t>
+  </si>
+  <si>
+    <t>Endocrinologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_diabetology.png</t>
+  </si>
+  <si>
+    <t>Ear, Nose &amp; Throat</t>
+  </si>
+  <si>
+    <t>ENT Specialist</t>
+  </si>
+  <si>
+    <t>ENT Specialists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_ent.png</t>
+  </si>
+  <si>
+    <t>Stomach, Liver &amp; Digestive System</t>
+  </si>
+  <si>
+    <t>Gastroenterologist</t>
+  </si>
+  <si>
+    <t>Gastroenterologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_gastroenterology.png</t>
+  </si>
+  <si>
+    <t>General Practitioner (MBBS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Practitioner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Practitioners </t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_general_mbbs.png</t>
+  </si>
+  <si>
+    <t>General Surgeons</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_general_surgeon.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Physician </t>
+  </si>
+  <si>
+    <t>General Physician</t>
+  </si>
+  <si>
+    <t>General Physicians</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_general_medicine.png</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>Nephrologist</t>
+  </si>
+  <si>
+    <t>Nephrologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_nephrology.png</t>
+  </si>
+  <si>
+    <t>Brain &amp; Nerves (non-surgical)</t>
+  </si>
+  <si>
+    <t>Neurologist</t>
+  </si>
+  <si>
+    <t>Neurologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_neurology.png</t>
+  </si>
+  <si>
+    <t>Brain Tumours</t>
+  </si>
+  <si>
+    <t>Neurosurgeon</t>
+  </si>
+  <si>
+    <t>Neurosurgeons</t>
+  </si>
+  <si>
+    <t>Women’s Health</t>
+  </si>
+  <si>
+    <t>Obstetrician and Gynaecologist</t>
+  </si>
+  <si>
+    <t>Obstetricians and Gynaecologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_obstetrics_and_gynaecology.png</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Oncologist</t>
+  </si>
+  <si>
+    <t>Oncologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_oncology.png</t>
+  </si>
+  <si>
+    <t>Opthalmology</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>Opthalmologist</t>
+  </si>
+  <si>
+    <t>Opthalmologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_opthalmology.png</t>
+  </si>
+  <si>
+    <t>Bone &amp; Joints</t>
+  </si>
+  <si>
+    <t>Orthopaedician</t>
+  </si>
+  <si>
+    <t>Orthopaedicians</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_orthopaedics.png</t>
+  </si>
+  <si>
+    <t>Children’s Health</t>
+  </si>
+  <si>
+    <t>Paediatrician</t>
+  </si>
+  <si>
+    <t>Paediatricians</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_paediatrics.png</t>
+  </si>
+  <si>
+    <t>Cosmetic surgery</t>
+  </si>
+  <si>
+    <t>Plastic Surgeon</t>
+  </si>
+  <si>
+    <t>Plastic Surgeons</t>
+  </si>
+  <si>
+    <t>Foot &amp; Ankle</t>
+  </si>
+  <si>
+    <t>Podiatrician</t>
+  </si>
+  <si>
+    <t>Podiatricians</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_podiatry.png</t>
+  </si>
+  <si>
+    <t>Lungs &amp; Breathing</t>
+  </si>
+  <si>
+    <t>Pulmonologist</t>
+  </si>
+  <si>
+    <t>Pulmonologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_pulmonology.png</t>
+  </si>
+  <si>
+    <t>Arthritis</t>
+  </si>
+  <si>
+    <t>Rheumatologist</t>
+  </si>
+  <si>
+    <t>Rheumatogists</t>
+  </si>
+  <si>
+    <t>Urinary, Kidney and Sexual Health</t>
+  </si>
+  <si>
+    <t>Urologist</t>
+  </si>
+  <si>
+    <t>Urologists</t>
+  </si>
+  <si>
+    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_urology.png</t>
+  </si>
+  <si>
+    <t>Vascular Surgery</t>
+  </si>
+  <si>
+    <t>Vascular Surgery &amp; Diabtec foot</t>
+  </si>
+  <si>
+    <t>Vascular Surgeons</t>
+  </si>
+  <si>
+    <t>'https://apollouatstg.blob.core.windows.net/specialties/ic_general_surgeon.png</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>FEMALEALE</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Surgery </t>
+  </si>
+  <si>
     <t xml:space="preserve">
-04:00 PM to 08:00 PM</t>
+04:00 PM - 08:00 PM</t>
   </si>
   <si>
     <t xml:space="preserve">
-08:00 AM to 04:00 PM</t>
+08:00 AM - 04:00 PM</t>
   </si>
   <si>
     <t xml:space="preserve">
-12:00 PM to 08:00 PM</t>
-  </si>
-  <si>
-    <t>+919849017435</t>
-  </si>
-  <si>
-    <t>+919866193953</t>
-  </si>
-  <si>
-    <t>+919849078839</t>
-  </si>
-  <si>
-    <t>+919246365400</t>
-  </si>
-  <si>
-    <t>+919849377722</t>
-  </si>
-  <si>
-    <t>+919848016226</t>
-  </si>
-  <si>
-    <t>+919849075972</t>
-  </si>
-  <si>
-    <t>+919848475788</t>
-  </si>
-  <si>
-    <t>+919848608970</t>
-  </si>
-  <si>
-    <t>+919908301691</t>
-  </si>
-  <si>
-    <t>+919848038668</t>
-  </si>
-  <si>
-    <t>+919866415551</t>
-  </si>
-  <si>
-    <t>+919959885937</t>
-  </si>
-  <si>
-    <t>+919959370666</t>
-  </si>
-  <si>
-    <t>+919000969645</t>
-  </si>
-  <si>
-    <t>+919866896555</t>
-  </si>
-  <si>
-    <t>+919573711837</t>
-  </si>
-  <si>
-    <t>+919441012035</t>
-  </si>
-  <si>
-    <t>+919866317666</t>
-  </si>
-  <si>
-    <t>+919490295100</t>
-  </si>
-  <si>
-    <t>+919553778899</t>
-  </si>
-  <si>
-    <t>+917382778899</t>
-  </si>
-  <si>
-    <t>+919848045810</t>
-  </si>
-  <si>
-    <t>+919000222666</t>
-  </si>
-  <si>
-    <t>+919985162807</t>
-  </si>
-  <si>
-    <t>+917337554400</t>
-  </si>
-  <si>
-    <t>+917093019404</t>
-  </si>
-  <si>
-    <t>+919000322220</t>
-  </si>
-  <si>
-    <t>+919391026973</t>
-  </si>
-  <si>
-    <t>+918106679447</t>
-  </si>
-  <si>
-    <t>+919848046785</t>
-  </si>
-  <si>
-    <t>+919600591982</t>
-  </si>
-  <si>
-    <t>+916301432462</t>
-  </si>
-  <si>
-    <t>+917731077771</t>
-  </si>
-  <si>
-    <t>+918142651326</t>
-  </si>
-  <si>
-    <t>+919566095660</t>
-  </si>
-  <si>
-    <t>+919840180337</t>
-  </si>
-  <si>
-    <t>+919962636462</t>
-  </si>
-  <si>
-    <t>+916587987085</t>
-  </si>
-  <si>
-    <t>+919840754132</t>
-  </si>
-  <si>
-    <t>+919841032624</t>
-  </si>
-  <si>
-    <t>+919840061262</t>
-  </si>
-  <si>
-    <t>+919841076010</t>
-  </si>
-  <si>
-    <t>+918056172261</t>
-  </si>
-  <si>
-    <t>+919884335390</t>
-  </si>
-  <si>
-    <t>+919840025810</t>
-  </si>
-  <si>
-    <t>+919840492326</t>
-  </si>
-  <si>
-    <t>+919486278468</t>
-  </si>
-  <si>
-    <t>+919840045500</t>
-  </si>
-  <si>
-    <t>+919840084225</t>
-  </si>
-  <si>
-    <t>+919445729069</t>
-  </si>
-  <si>
-    <t>+919841168387</t>
-  </si>
-  <si>
-    <t>+919840074422</t>
-  </si>
-  <si>
-    <t>+919282104050</t>
-  </si>
-  <si>
-    <t>+91745674374</t>
-  </si>
-  <si>
-    <t>+9198846 72092</t>
-  </si>
-  <si>
-    <t>+919940049327</t>
-  </si>
-  <si>
-    <t>+919841048004</t>
-  </si>
-  <si>
-    <t>+919840116712</t>
-  </si>
-  <si>
-    <t>+919840064496</t>
-  </si>
-  <si>
-    <t>+919840026206</t>
-  </si>
-  <si>
-    <t>+919940421395</t>
-  </si>
-  <si>
-    <t>+919176329412</t>
-  </si>
-  <si>
-    <t>+919840073880</t>
-  </si>
-  <si>
-    <t>+919677116339</t>
-  </si>
-  <si>
-    <t>+918197667110</t>
-  </si>
-  <si>
-    <t>+918939526822</t>
-  </si>
-  <si>
-    <t>+919940310387</t>
-  </si>
-  <si>
-    <t>+914428296913</t>
-  </si>
-  <si>
-    <t>+919840014416</t>
-  </si>
-  <si>
-    <t>+916854556542</t>
-  </si>
-  <si>
-    <t>+919840078970</t>
-  </si>
-  <si>
-    <t>+919566222522</t>
-  </si>
-  <si>
-    <t>+919840055552</t>
-  </si>
-  <si>
-    <t>+919840191914</t>
-  </si>
-  <si>
-    <t>+919500056973</t>
-  </si>
-  <si>
-    <t>+919840820053</t>
-  </si>
-  <si>
-    <t>+9198410 16727</t>
-  </si>
-  <si>
-    <t>+919840130413</t>
-  </si>
-  <si>
-    <t>+919677277955</t>
-  </si>
-  <si>
-    <t>+9198400 64123</t>
-  </si>
-  <si>
-    <t>+9191779897902</t>
-  </si>
-  <si>
-    <t>+919445561466</t>
-  </si>
-  <si>
-    <t>+919840014421</t>
-  </si>
-  <si>
-    <t>+919841072234</t>
-  </si>
-  <si>
-    <t>+917893820645</t>
-  </si>
-  <si>
-    <t>+917997818181</t>
-  </si>
-  <si>
-    <t>+919003154148</t>
-  </si>
-  <si>
-    <t>+919110394278</t>
-  </si>
-  <si>
-    <t>+919849494904</t>
-  </si>
-  <si>
-    <t>+917893765888</t>
-  </si>
-  <si>
-    <t>+919505008999</t>
-  </si>
-  <si>
-    <t>+919700329392</t>
-  </si>
-  <si>
-    <t>+918074302522</t>
-  </si>
-  <si>
-    <t>+919550630511</t>
-  </si>
-  <si>
-    <t>+919949506265</t>
-  </si>
-  <si>
-    <t>+919533910003</t>
-  </si>
-  <si>
-    <t>+917569073339</t>
-  </si>
-  <si>
-    <t>+918466046037</t>
-  </si>
-  <si>
-    <t>+919989827531</t>
-  </si>
-  <si>
-    <t>+919966344889</t>
-  </si>
-  <si>
-    <t>+919652055256</t>
-  </si>
-  <si>
-    <t>+916281087085</t>
-  </si>
-  <si>
-    <t>+919652958404</t>
-  </si>
-  <si>
-    <t>+919866200788</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>+918374650986</t>
-  </si>
-  <si>
-    <t>+917989664049</t>
-  </si>
-  <si>
-    <t>+918008452222</t>
-  </si>
-  <si>
-    <t>+916303755031</t>
-  </si>
-  <si>
-    <t>+919948534931</t>
-  </si>
-  <si>
-    <t>+918367299655</t>
-  </si>
-  <si>
-    <t>+919397881604</t>
-  </si>
-  <si>
-    <t>+919652223117</t>
-  </si>
-  <si>
-    <t>+919440354711</t>
-  </si>
-  <si>
-    <t>+919949551501</t>
-  </si>
-  <si>
-    <t>+918142252991</t>
-  </si>
-  <si>
-    <t>+919052154123</t>
-  </si>
-  <si>
-    <t>+919866717924</t>
-  </si>
-  <si>
-    <t>APOLLO</t>
-  </si>
-  <si>
-    <t>PAYROLL</t>
-  </si>
-  <si>
-    <t>JUNIOR</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>TamilNadu</t>
-  </si>
-  <si>
-    <t>Specialty</t>
-  </si>
-  <si>
-    <t>User Friendly Nomenclature</t>
-  </si>
-  <si>
-    <t>Specialist</t>
-  </si>
-  <si>
-    <t>Specialist Plural</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Obesity, Fat, Weight Loss</t>
-  </si>
-  <si>
-    <t>Bariatrician</t>
-  </si>
-  <si>
-    <t>Bariatricians</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/specialty.png</t>
-  </si>
-  <si>
-    <t>Heart &amp; BP</t>
-  </si>
-  <si>
-    <t>Cardiologist</t>
-  </si>
-  <si>
-    <t>Cardiologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_cardiology.png</t>
-  </si>
-  <si>
-    <t>Heart Surgery</t>
-  </si>
-  <si>
-    <t>Cardio-thoracic surgeon</t>
-  </si>
-  <si>
-    <t>Cardio-thoracic surgeons</t>
-  </si>
-  <si>
-    <t>Skin &amp; Hair</t>
-  </si>
-  <si>
-    <t>Dermatologist</t>
-  </si>
-  <si>
-    <t>Dermatologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_dermatology.png</t>
-  </si>
-  <si>
-    <t>Diabetes, Thyroid, Hormonal</t>
-  </si>
-  <si>
-    <t>Endocrinologist</t>
-  </si>
-  <si>
-    <t>Endocrinologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_diabetology.png</t>
-  </si>
-  <si>
-    <t>Ear, Nose &amp; Throat</t>
-  </si>
-  <si>
-    <t>ENT Specialist</t>
-  </si>
-  <si>
-    <t>ENT Specialists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_ent.png</t>
-  </si>
-  <si>
-    <t>Stomach, Liver &amp; Digestive System</t>
-  </si>
-  <si>
-    <t>Gastroenterologist</t>
-  </si>
-  <si>
-    <t>Gastroenterologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_gastroenterology.png</t>
-  </si>
-  <si>
-    <t>General Practitioner (MBBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Practitioner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Practitioners </t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_general_mbbs.png</t>
-  </si>
-  <si>
-    <t>General Surgeons</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_general_surgeon.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Physician </t>
-  </si>
-  <si>
-    <t>General Physician</t>
-  </si>
-  <si>
-    <t>General Physicians</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_general_medicine.png</t>
-  </si>
-  <si>
-    <t>Kidney</t>
-  </si>
-  <si>
-    <t>Nephrologist</t>
-  </si>
-  <si>
-    <t>Nephrologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_nephrology.png</t>
-  </si>
-  <si>
-    <t>Brain &amp; Nerves (non-surgical)</t>
-  </si>
-  <si>
-    <t>Neurologist</t>
-  </si>
-  <si>
-    <t>Neurologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_neurology.png</t>
-  </si>
-  <si>
-    <t>Brain Tumours</t>
-  </si>
-  <si>
-    <t>Neurosurgeon</t>
-  </si>
-  <si>
-    <t>Neurosurgeons</t>
-  </si>
-  <si>
-    <t>Women’s Health</t>
-  </si>
-  <si>
-    <t>Obstetrician and Gynaecologist</t>
-  </si>
-  <si>
-    <t>Obstetricians and Gynaecologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_obstetrics_and_gynaecology.png</t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
-    <t>Oncologist</t>
-  </si>
-  <si>
-    <t>Oncologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_oncology.png</t>
-  </si>
-  <si>
-    <t>Opthalmology</t>
-  </si>
-  <si>
-    <t>Eyes</t>
-  </si>
-  <si>
-    <t>Opthalmologist</t>
-  </si>
-  <si>
-    <t>Opthalmologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_opthalmology.png</t>
-  </si>
-  <si>
-    <t>Bone &amp; Joints</t>
-  </si>
-  <si>
-    <t>Orthopaedician</t>
-  </si>
-  <si>
-    <t>Orthopaedicians</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_orthopaedics.png</t>
-  </si>
-  <si>
-    <t>Children’s Health</t>
-  </si>
-  <si>
-    <t>Paediatrician</t>
-  </si>
-  <si>
-    <t>Paediatricians</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_paediatrics.png</t>
-  </si>
-  <si>
-    <t>Cosmetic surgery</t>
-  </si>
-  <si>
-    <t>Plastic Surgeon</t>
-  </si>
-  <si>
-    <t>Plastic Surgeons</t>
-  </si>
-  <si>
-    <t>Foot &amp; Ankle</t>
-  </si>
-  <si>
-    <t>Podiatrician</t>
-  </si>
-  <si>
-    <t>Podiatricians</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_podiatry.png</t>
-  </si>
-  <si>
-    <t>Lungs &amp; Breathing</t>
-  </si>
-  <si>
-    <t>Pulmonologist</t>
-  </si>
-  <si>
-    <t>Pulmonologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_pulmonology.png</t>
-  </si>
-  <si>
-    <t>Arthritis</t>
-  </si>
-  <si>
-    <t>Rheumatologist</t>
-  </si>
-  <si>
-    <t>Rheumatogists</t>
-  </si>
-  <si>
-    <t>Urinary, Kidney and Sexual Health</t>
-  </si>
-  <si>
-    <t>Urologist</t>
-  </si>
-  <si>
-    <t>Urologists</t>
-  </si>
-  <si>
-    <t>https://apollouatstg.blob.core.windows.net/specialties/ic_urology.png</t>
-  </si>
-  <si>
-    <t>Vascular Surgery</t>
-  </si>
-  <si>
-    <t>Vascular Surgery &amp; Diabtec foot</t>
-  </si>
-  <si>
-    <t>Vascular Surgeons</t>
-  </si>
-  <si>
-    <t>'https://apollouatstg.blob.core.windows.net/specialties/ic_general_surgeon.png</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>FEMALEALE</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Surgery </t>
+12:00 PM - 08:00 PM</t>
+  </si>
+  <si>
+    <t>08:00 AM - 04:00 PM</t>
+  </si>
+  <si>
+    <t>09:00 AM - 05:00 PM</t>
+  </si>
+  <si>
+    <t>08:00 PM - 08:00 AM</t>
+  </si>
+  <si>
+    <t>06:00 PM - 07:00 PM</t>
+  </si>
+  <si>
+    <t>04:00 PM - 05:00 PM</t>
+  </si>
+  <si>
+    <t>02:00 PM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>03:00 PM - 04:00 PM</t>
+  </si>
+  <si>
+    <t>05:15 PM - 06:15 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00 PM - 02:00  PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:30  PM - 06:30 PM </t>
+  </si>
+  <si>
+    <t>01:30 PM - 02:30 PM</t>
+  </si>
+  <si>
+    <t>02:30 PM - 03:30 PM</t>
+  </si>
+  <si>
+    <t>05:00 PM - 06:00 PM</t>
+  </si>
+  <si>
+    <t>03:30 PM - 04:30 PM</t>
+  </si>
+  <si>
+    <t>04:30 PM - 05:30 PM</t>
+  </si>
+  <si>
+    <t>12:00 PM - 01:00 PM</t>
+  </si>
+  <si>
+    <t>01:00 PM - 02:00 PM</t>
+  </si>
+  <si>
+    <t>10:00 AM - 11:00 AM
+02:00 PM - 04:00 PM</t>
+  </si>
+  <si>
+    <t>10:00 AM - 11:00 AM</t>
+  </si>
+  <si>
+    <t>11:00 AM - 12:00 PM</t>
   </si>
 </sst>
 </file>
@@ -3174,9 +3174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
-      <selection activeCell="J61" sqref="J1:J1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3205,7 +3203,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>15</v>
@@ -3220,7 +3218,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>19</v>
@@ -3235,31 +3233,31 @@
         <v>21</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>23</v>
@@ -3268,7 +3266,7 @@
         <v>24</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="X1" s="7"/>
       <c r="Y1" s="6" t="s">
@@ -3289,10 +3287,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
@@ -3302,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
@@ -3317,25 +3315,25 @@
         <v>184</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P2" s="1">
         <v>500033</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S2" s="1">
         <v>800</v>
@@ -3350,13 +3348,13 @@
         <v>33</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>509</v>
+        <v>848</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -3367,10 +3365,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>35</v>
@@ -3380,7 +3378,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>37</v>
@@ -3395,25 +3393,25 @@
         <v>185</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P3" s="1">
         <v>500033</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S3" s="1">
         <v>1000</v>
@@ -3428,20 +3426,20 @@
         <v>38</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>510</v>
+        <v>843</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
         <v>207</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -3449,10 +3447,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>40</v>
@@ -3462,7 +3460,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>42</v>
@@ -3477,25 +3475,25 @@
         <v>186</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P4" s="1">
         <v>500033</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S4" s="1">
         <v>800</v>
@@ -3508,20 +3506,20 @@
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="9" t="s">
-        <v>512</v>
+        <v>839</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3529,10 +3527,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -3544,7 +3542,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>46</v>
@@ -3559,25 +3557,25 @@
         <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P5" s="1">
         <v>500033</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S5" s="1">
         <v>800</v>
@@ -3590,20 +3588,20 @@
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>508</v>
+        <v>840</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
         <v>208</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3611,10 +3609,10 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>48</v>
@@ -3624,7 +3622,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>50</v>
@@ -3639,25 +3637,25 @@
         <v>183</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P6" s="1">
         <v>500033</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S6" s="1">
         <v>800</v>
@@ -3670,20 +3668,20 @@
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="1" t="s">
-        <v>508</v>
+        <v>840</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
         <v>209</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3691,10 +3689,10 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>52</v>
@@ -3704,7 +3702,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>53</v>
@@ -3719,25 +3717,25 @@
         <v>183</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P7" s="1">
         <v>500033</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S7" s="1">
         <v>800</v>
@@ -3752,18 +3750,18 @@
         <v>54</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>508</v>
+        <v>840</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -3771,10 +3769,10 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>56</v>
@@ -3786,7 +3784,7 @@
         <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>59</v>
@@ -3801,25 +3799,25 @@
         <v>183</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P8" s="1">
         <v>500033</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S8" s="1">
         <v>1400</v>
@@ -3832,18 +3830,18 @@
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="1" t="s">
-        <v>513</v>
+        <v>844</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3851,10 +3849,10 @@
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>61</v>
@@ -3866,7 +3864,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>37</v>
@@ -3881,25 +3879,25 @@
         <v>183</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P9" s="1">
         <v>500033</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S9" s="1">
         <v>1000</v>
@@ -3912,20 +3910,20 @@
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="1" t="s">
-        <v>518</v>
+        <v>845</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
         <v>207</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -3933,10 +3931,10 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>64</v>
@@ -3946,7 +3944,7 @@
         <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>66</v>
@@ -3961,25 +3959,25 @@
         <v>185</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P10" s="1">
         <v>500033</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S10" s="1">
         <v>1000</v>
@@ -3994,18 +3992,18 @@
         <v>67</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>514</v>
+        <v>853</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -4013,10 +4011,10 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>69</v>
@@ -4028,7 +4026,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>71</v>
@@ -4043,25 +4041,25 @@
         <v>183</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P11" s="1">
         <v>500033</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S11" s="1">
         <v>800</v>
@@ -4074,18 +4072,18 @@
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="2" t="s">
-        <v>507</v>
+        <v>854</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -4093,10 +4091,10 @@
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>73</v>
@@ -4106,7 +4104,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>75</v>
@@ -4115,31 +4113,31 @@
         <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>189</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P12" s="1">
         <v>500033</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S12" s="1">
         <v>600</v>
@@ -4152,20 +4150,20 @@
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>738</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="24" x14ac:dyDescent="0.2">
@@ -4173,10 +4171,10 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>78</v>
@@ -4186,7 +4184,7 @@
         <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>80</v>
@@ -4201,25 +4199,25 @@
         <v>188</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P13" s="1">
         <v>500033</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S13" s="1">
         <v>1000</v>
@@ -4232,18 +4230,18 @@
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4251,10 +4249,10 @@
         <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>76</v>
@@ -4264,7 +4262,7 @@
         <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>83</v>
@@ -4279,25 +4277,25 @@
         <v>190</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P14" s="1">
         <v>500033</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S14" s="1">
         <v>700</v>
@@ -4312,20 +4310,20 @@
         <v>84</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
         <v>211</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>739</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4333,10 +4331,10 @@
         <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>86</v>
@@ -4348,7 +4346,7 @@
         <v>87</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>88</v>
@@ -4363,25 +4361,25 @@
         <v>183</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P15" s="1">
         <v>500033</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S15" s="1">
         <v>800</v>
@@ -4396,20 +4394,20 @@
         <v>89</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>517</v>
+        <v>846</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
         <v>212</v>
       </c>
       <c r="AB15" s="8" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4417,10 +4415,10 @@
         <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>91</v>
@@ -4432,7 +4430,7 @@
         <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>93</v>
@@ -4447,25 +4445,25 @@
         <v>183</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P16" s="1">
         <v>500033</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S16" s="1">
         <v>500</v>
@@ -4478,18 +4476,18 @@
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4497,10 +4495,10 @@
         <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>95</v>
@@ -4510,7 +4508,7 @@
         <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>96</v>
@@ -4525,25 +4523,25 @@
         <v>191</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P17" s="1">
         <v>500033</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S17" s="1">
         <v>1000</v>
@@ -4558,20 +4556,20 @@
         <v>97</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>508</v>
+        <v>840</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
         <v>213</v>
       </c>
       <c r="AB17" s="8" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4579,10 +4577,10 @@
         <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>99</v>
@@ -4594,7 +4592,7 @@
         <v>101</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>102</v>
@@ -4609,25 +4607,25 @@
         <v>192</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P18" s="1">
         <v>500033</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S18" s="1">
         <v>800</v>
@@ -4642,18 +4640,18 @@
         <v>54</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>517</v>
+        <v>846</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4661,10 +4659,10 @@
         <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>104</v>
@@ -4676,7 +4674,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>106</v>
@@ -4691,25 +4689,25 @@
         <v>184</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P19" s="1">
         <v>500033</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S19" s="1">
         <v>1000</v>
@@ -4722,20 +4720,20 @@
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="2" t="s">
-        <v>511</v>
+        <v>847</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
         <v>214</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4743,10 +4741,10 @@
         <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>108</v>
@@ -4758,7 +4756,7 @@
         <v>110</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>111</v>
@@ -4773,25 +4771,25 @@
         <v>193</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P20" s="1">
         <v>500033</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S20" s="1">
         <v>1000</v>
@@ -4806,20 +4804,20 @@
         <v>112</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>507</v>
+        <v>854</v>
       </c>
       <c r="X20" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
         <v>215</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4827,10 +4825,10 @@
         <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>114</v>
@@ -4842,7 +4840,7 @@
         <v>115</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>116</v>
@@ -4857,25 +4855,25 @@
         <v>188</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P21" s="1">
         <v>500033</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S21" s="1">
         <v>900</v>
@@ -4888,20 +4886,20 @@
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="1" t="s">
-        <v>509</v>
+        <v>848</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1" t="s">
         <v>216</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4909,10 +4907,10 @@
         <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>118</v>
@@ -4924,7 +4922,7 @@
         <v>120</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>121</v>
@@ -4933,31 +4931,31 @@
         <v>22</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>184</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P22" s="1">
         <v>500033</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S22" s="1">
         <v>800</v>
@@ -4970,18 +4968,18 @@
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4989,10 +4987,10 @@
         <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>123</v>
@@ -5002,7 +5000,7 @@
         <v>124</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>125</v>
@@ -5017,25 +5015,25 @@
         <v>194</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P23" s="1">
         <v>500033</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S23" s="1">
         <v>1000</v>
@@ -5048,20 +5046,20 @@
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>509</v>
+        <v>848</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5069,10 +5067,10 @@
         <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>127</v>
@@ -5082,7 +5080,7 @@
         <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>129</v>
@@ -5097,25 +5095,25 @@
         <v>183</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P24" s="1">
         <v>500033</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S24" s="1">
         <v>1000</v>
@@ -5128,20 +5126,20 @@
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="1" t="s">
-        <v>516</v>
+        <v>849</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5149,10 +5147,10 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>131</v>
@@ -5162,7 +5160,7 @@
         <v>132</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>133</v>
@@ -5177,25 +5175,25 @@
         <v>183</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P25" s="1">
         <v>500033</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S25" s="1">
         <v>1500</v>
@@ -5210,20 +5208,20 @@
         <v>134</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>509</v>
+        <v>848</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5231,10 +5229,10 @@
         <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>136</v>
@@ -5246,7 +5244,7 @@
         <v>45</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>138</v>
@@ -5261,25 +5259,25 @@
         <v>188</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P26" s="1">
         <v>500033</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S26" s="1">
         <v>800</v>
@@ -5294,20 +5292,20 @@
         <v>139</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>515</v>
+        <v>850</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
         <v>209</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5315,10 +5313,10 @@
         <v>140</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>141</v>
@@ -5328,7 +5326,7 @@
         <v>45</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>142</v>
@@ -5337,31 +5335,31 @@
         <v>9</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>188</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P27" s="1">
         <v>500033</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S27" s="1">
         <v>800</v>
@@ -5376,18 +5374,18 @@
         <v>143</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>508</v>
+        <v>840</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5395,10 +5393,10 @@
         <v>144</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>145</v>
@@ -5408,7 +5406,7 @@
         <v>146</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>147</v>
@@ -5423,25 +5421,25 @@
         <v>183</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P28" s="1">
         <v>500033</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S28" s="1">
         <v>700</v>
@@ -5454,20 +5452,20 @@
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="1" t="s">
-        <v>515</v>
+        <v>850</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
         <v>217</v>
       </c>
       <c r="AB28" s="8" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5475,10 +5473,10 @@
         <v>148</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>149</v>
@@ -5488,7 +5486,7 @@
         <v>150</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>151</v>
@@ -5503,25 +5501,25 @@
         <v>195</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P29" s="1">
         <v>500033</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S29" s="1">
         <v>1000</v>
@@ -5534,18 +5532,18 @@
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="1" t="s">
-        <v>509</v>
+        <v>848</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5553,10 +5551,10 @@
         <v>152</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>153</v>
@@ -5568,7 +5566,7 @@
         <v>154</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>155</v>
@@ -5583,25 +5581,25 @@
         <v>183</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P30" s="1">
         <v>500033</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S30" s="1">
         <v>700</v>
@@ -5616,18 +5614,18 @@
         <v>156</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>515</v>
+        <v>850</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5635,10 +5633,10 @@
         <v>157</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>158</v>
@@ -5650,7 +5648,7 @@
         <v>159</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>160</v>
@@ -5665,25 +5663,25 @@
         <v>183</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P31" s="1">
         <v>500033</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S31" s="1">
         <v>600</v>
@@ -5696,20 +5694,20 @@
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
         <v>204</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5717,10 +5715,10 @@
         <v>161</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>162</v>
@@ -5730,7 +5728,7 @@
         <v>36</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>163</v>
@@ -5745,25 +5743,25 @@
         <v>183</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P32" s="1">
         <v>500033</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S32" s="1">
         <v>600</v>
@@ -5776,20 +5774,20 @@
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="2" t="s">
-        <v>511</v>
+        <v>847</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
         <v>205</v>
       </c>
       <c r="AB32" s="8" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5797,10 +5795,10 @@
         <v>164</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>165</v>
@@ -5810,7 +5808,7 @@
         <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>166</v>
@@ -5825,25 +5823,25 @@
         <v>182</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P33" s="1">
         <v>500033</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S33" s="1">
         <v>600</v>
@@ -5856,20 +5854,20 @@
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="2" t="s">
-        <v>511</v>
+        <v>847</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
         <v>205</v>
       </c>
       <c r="AB33" s="8" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5877,10 +5875,10 @@
         <v>167</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -5890,7 +5888,7 @@
         <v>168</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>169</v>
@@ -5905,25 +5903,25 @@
         <v>187</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P34" s="1">
         <v>500033</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S34" s="1">
         <v>500</v>
@@ -5936,18 +5934,18 @@
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="2" t="s">
-        <v>507</v>
+        <v>854</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5955,10 +5953,10 @@
         <v>170</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>171</v>
@@ -5968,7 +5966,7 @@
         <v>172</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>173</v>
@@ -5983,25 +5981,25 @@
         <v>196</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P35" s="1">
         <v>500033</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S35" s="1">
         <v>1000</v>
@@ -6014,20 +6012,20 @@
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="2" t="s">
-        <v>511</v>
+        <v>847</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AB35" s="8" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6035,10 +6033,10 @@
         <v>174</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>175</v>
@@ -6048,7 +6046,7 @@
         <v>176</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>177</v>
@@ -6063,25 +6061,25 @@
         <v>194</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P36" s="1">
         <v>500033</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S36" s="1">
         <v>800</v>
@@ -6094,18 +6092,18 @@
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="1" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6113,10 +6111,10 @@
         <v>178</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>179</v>
@@ -6126,7 +6124,7 @@
         <v>180</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>181</v>
@@ -6135,31 +6133,31 @@
         <v>5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>188</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="P37" s="1">
         <v>500033</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S37" s="1">
         <v>800</v>
@@ -6172,18 +6170,18 @@
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="2" t="s">
-        <v>507</v>
+        <v>854</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6191,10 +6189,10 @@
         <v>501</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>500</v>
@@ -6204,7 +6202,7 @@
         <v>499</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>498</v>
@@ -6223,15 +6221,15 @@
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S38" s="1">
         <v>1799</v>
@@ -6246,20 +6244,20 @@
         <v>496</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>495</v>
       </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6267,10 +6265,10 @@
         <v>494</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>493</v>
@@ -6280,7 +6278,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>491</v>
@@ -6299,15 +6297,15 @@
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S39" s="1">
         <v>1299</v>
@@ -6320,20 +6318,20 @@
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="1" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>490</v>
       </c>
       <c r="AA39" s="11"/>
       <c r="AB39" s="12" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6341,10 +6339,10 @@
         <v>489</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>488</v>
@@ -6354,7 +6352,7 @@
         <v>487</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>486</v>
@@ -6373,15 +6371,15 @@
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S40" s="1">
         <v>999</v>
@@ -6396,20 +6394,20 @@
         <v>485</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="AA40" s="11"/>
       <c r="AB40" s="12" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6417,10 +6415,10 @@
         <v>484</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>205</v>
@@ -6432,7 +6430,7 @@
         <v>483</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>482</v>
@@ -6451,15 +6449,15 @@
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S41" s="1">
         <v>1299</v>
@@ -6472,20 +6470,20 @@
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="1" t="s">
-        <v>504</v>
+        <v>851</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>480</v>
       </c>
       <c r="AA41" s="11"/>
       <c r="AB41" s="12" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6493,10 +6491,10 @@
         <v>479</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>478</v>
@@ -6506,7 +6504,7 @@
         <v>314</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>477</v>
@@ -6525,15 +6523,15 @@
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S42" s="1">
         <v>1299</v>
@@ -6546,20 +6544,20 @@
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>476</v>
       </c>
       <c r="AA42" s="11"/>
       <c r="AB42" s="12" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6567,10 +6565,10 @@
         <v>475</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>474</v>
@@ -6580,7 +6578,7 @@
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>473</v>
@@ -6599,15 +6597,15 @@
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S43" s="1">
         <v>1299</v>
@@ -6620,20 +6618,20 @@
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>505</v>
+        <v>852</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>472</v>
       </c>
       <c r="AA43" s="11"/>
       <c r="AB43" s="12" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6641,10 +6639,10 @@
         <v>471</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>470</v>
@@ -6654,7 +6652,7 @@
         <v>469</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>163</v>
@@ -6673,15 +6671,15 @@
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S44" s="2">
         <v>1299</v>
@@ -6694,20 +6692,20 @@
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="Z44" s="2" t="s">
         <v>468</v>
       </c>
       <c r="AA44" s="11"/>
       <c r="AB44" s="12" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6715,10 +6713,10 @@
         <v>467</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>466</v>
@@ -6730,7 +6728,7 @@
         <v>236</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>464</v>
@@ -6749,15 +6747,15 @@
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S45" s="2">
         <v>1099</v>
@@ -6770,20 +6768,20 @@
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="Z45" s="2" t="s">
         <v>462</v>
       </c>
       <c r="AA45" s="11"/>
       <c r="AB45" s="12" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6791,10 +6789,10 @@
         <v>461</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>460</v>
@@ -6804,7 +6802,7 @@
         <v>459</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>458</v>
@@ -6823,15 +6821,15 @@
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S46" s="2">
         <v>1299</v>
@@ -6844,20 +6842,20 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="Z46" s="2" t="s">
         <v>457</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6865,10 +6863,10 @@
         <v>456</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>455</v>
@@ -6880,7 +6878,7 @@
         <v>437</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>454</v>
@@ -6899,15 +6897,15 @@
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S47" s="2">
         <v>1299</v>
@@ -6920,20 +6918,20 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AA47" s="1"/>
       <c r="AB47" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6941,10 +6939,10 @@
         <v>452</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>270</v>
@@ -6954,7 +6952,7 @@
         <v>451</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>450</v>
@@ -6973,15 +6971,15 @@
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S48" s="2">
         <v>1099</v>
@@ -6994,20 +6992,20 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>677</v>
+        <v>654</v>
       </c>
       <c r="Z48" s="2" t="s">
         <v>449</v>
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7015,10 +7013,10 @@
         <v>448</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>349</v>
@@ -7028,7 +7026,7 @@
         <v>447</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>446</v>
@@ -7047,15 +7045,15 @@
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S49" s="2">
         <v>1299</v>
@@ -7068,20 +7066,20 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="2" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="Z49" s="2" t="s">
         <v>445</v>
       </c>
       <c r="AA49" s="1"/>
       <c r="AB49" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7089,10 +7087,10 @@
         <v>444</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>443</v>
@@ -7102,7 +7100,7 @@
         <v>442</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>441</v>
@@ -7121,15 +7119,15 @@
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S50" s="2">
         <v>1999</v>
@@ -7142,20 +7140,20 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2" t="s">
-        <v>507</v>
+        <v>854</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="Z50" s="2" t="s">
         <v>440</v>
       </c>
       <c r="AA50" s="1"/>
       <c r="AB50" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7163,10 +7161,10 @@
         <v>439</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>438</v>
@@ -7176,7 +7174,7 @@
         <v>437</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>436</v>
@@ -7195,15 +7193,15 @@
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S51" s="2">
         <v>1799</v>
@@ -7216,20 +7214,20 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
       <c r="Z51" s="2" t="s">
         <v>434</v>
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7237,10 +7235,10 @@
         <v>433</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>432</v>
@@ -7252,7 +7250,7 @@
         <v>431</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>430</v>
@@ -7271,15 +7269,15 @@
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S52" s="2">
         <v>1899</v>
@@ -7292,20 +7290,20 @@
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="2" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="Z52" s="2" t="s">
         <v>429</v>
       </c>
       <c r="AA52" s="1"/>
       <c r="AB52" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7313,10 +7311,10 @@
         <v>428</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>427</v>
@@ -7326,7 +7324,7 @@
         <v>137</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>426</v>
@@ -7335,7 +7333,7 @@
         <v>18</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>241</v>
@@ -7345,15 +7343,15 @@
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S53" s="2">
         <v>1299</v>
@@ -7366,20 +7364,20 @@
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="Z53" s="2" t="s">
         <v>425</v>
       </c>
       <c r="AA53" s="1"/>
       <c r="AB53" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7387,10 +7385,10 @@
         <v>424</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>290</v>
@@ -7400,7 +7398,7 @@
         <v>223</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>423</v>
@@ -7409,7 +7407,7 @@
         <v>15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>241</v>
@@ -7419,15 +7417,15 @@
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S54" s="2">
         <v>1299</v>
@@ -7442,20 +7440,20 @@
         <v>422</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="Z54" s="2" t="s">
         <v>421</v>
       </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7463,10 +7461,10 @@
         <v>420</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>349</v>
@@ -7478,7 +7476,7 @@
         <v>418</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>417</v>
@@ -7487,7 +7485,7 @@
         <v>36</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>275</v>
@@ -7497,15 +7495,15 @@
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S55" s="2">
         <v>1299</v>
@@ -7520,20 +7518,20 @@
         <v>416</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7541,10 +7539,10 @@
         <v>415</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>414</v>
@@ -7554,7 +7552,7 @@
         <v>413</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>412</v>
@@ -7563,7 +7561,7 @@
         <v>41</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>275</v>
@@ -7573,15 +7571,15 @@
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S56" s="2">
         <v>1099</v>
@@ -7596,20 +7594,20 @@
         <v>411</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>504</v>
+        <v>851</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="Z56" s="2" t="s">
         <v>410</v>
       </c>
       <c r="AA56" s="1"/>
       <c r="AB56" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7617,10 +7615,10 @@
         <v>409</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>408</v>
@@ -7628,7 +7626,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>407</v>
@@ -7637,7 +7635,7 @@
         <v>18</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>346</v>
@@ -7647,15 +7645,15 @@
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S57" s="2">
         <v>1099</v>
@@ -7668,20 +7666,20 @@
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2" t="s">
-        <v>504</v>
+        <v>851</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="Z57" s="2" t="s">
         <v>406</v>
       </c>
       <c r="AA57" s="1"/>
       <c r="AB57" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7689,10 +7687,10 @@
         <v>405</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>404</v>
@@ -7704,7 +7702,7 @@
         <v>45</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>402</v>
@@ -7723,15 +7721,15 @@
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S58" s="2">
         <v>1099</v>
@@ -7746,20 +7744,20 @@
         <v>400</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>508</v>
+        <v>840</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="Z58" s="2" t="s">
         <v>399</v>
       </c>
       <c r="AA58" s="1"/>
       <c r="AB58" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7767,10 +7765,10 @@
         <v>398</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>290</v>
@@ -7782,7 +7780,7 @@
         <v>396</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>395</v>
@@ -7801,15 +7799,15 @@
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S59" s="2">
         <v>1099</v>
@@ -7824,20 +7822,20 @@
         <v>394</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="Z59" s="2" t="s">
         <v>393</v>
       </c>
       <c r="AA59" s="1"/>
       <c r="AB59" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7845,10 +7843,10 @@
         <v>392</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>391</v>
@@ -7858,7 +7856,7 @@
         <v>271</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>390</v>
@@ -7877,15 +7875,15 @@
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S60" s="2">
         <v>1299</v>
@@ -7900,20 +7898,20 @@
         <v>388</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>504</v>
+        <v>851</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="Z60" s="2" t="s">
         <v>387</v>
       </c>
       <c r="AA60" s="1"/>
       <c r="AB60" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7921,10 +7919,10 @@
         <v>386</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>385</v>
@@ -7934,7 +7932,7 @@
         <v>384</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>383</v>
@@ -7953,15 +7951,15 @@
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S61" s="2">
         <v>1299</v>
@@ -7976,20 +7974,20 @@
         <v>381</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="Z61" s="2" t="s">
         <v>380</v>
       </c>
       <c r="AA61" s="1"/>
       <c r="AB61" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7997,10 +7995,10 @@
         <v>379</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>378</v>
@@ -8012,7 +8010,7 @@
         <v>376</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>375</v>
@@ -8031,15 +8029,15 @@
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S62" s="2">
         <v>1299</v>
@@ -8052,20 +8050,20 @@
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="Z62" s="2" t="s">
         <v>374</v>
       </c>
       <c r="AA62" s="1"/>
       <c r="AB62" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8073,10 +8071,10 @@
         <v>373</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>349</v>
@@ -8088,7 +8086,7 @@
         <v>372</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>371</v>
@@ -8107,15 +8105,15 @@
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S63" s="2">
         <v>1299</v>
@@ -8130,20 +8128,20 @@
         <v>369</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="Z63" s="2" t="s">
         <v>368</v>
       </c>
       <c r="AA63" s="1"/>
       <c r="AB63" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8151,10 +8149,10 @@
         <v>367</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>349</v>
@@ -8164,7 +8162,7 @@
         <v>366</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>365</v>
@@ -8183,15 +8181,15 @@
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S64" s="2">
         <v>1299</v>
@@ -8206,20 +8204,20 @@
         <v>364</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>508</v>
+        <v>840</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="Z64" s="2" t="s">
         <v>363</v>
       </c>
       <c r="AA64" s="1"/>
       <c r="AB64" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8227,10 +8225,10 @@
         <v>362</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>361</v>
@@ -8238,7 +8236,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>360</v>
@@ -8257,15 +8255,15 @@
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S65" s="2">
         <v>1099</v>
@@ -8280,20 +8278,20 @@
         <v>359</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>505</v>
+        <v>852</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="Z65" s="2" t="s">
         <v>358</v>
       </c>
       <c r="AA65" s="1"/>
       <c r="AB65" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8301,10 +8299,10 @@
         <v>357</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>356</v>
@@ -8314,7 +8312,7 @@
         <v>355</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>354</v>
@@ -8333,15 +8331,15 @@
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S66" s="2">
         <v>1099</v>
@@ -8356,20 +8354,20 @@
         <v>352</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="Z66" s="2" t="s">
         <v>351</v>
       </c>
       <c r="AA66" s="1"/>
       <c r="AB66" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8377,10 +8375,10 @@
         <v>350</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>349</v>
@@ -8390,7 +8388,7 @@
         <v>348</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>347</v>
@@ -8409,15 +8407,15 @@
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S67" s="2">
         <v>1299</v>
@@ -8432,20 +8430,20 @@
         <v>345</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>508</v>
+        <v>840</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="Z67" s="2" t="s">
         <v>344</v>
       </c>
       <c r="AA67" s="1"/>
       <c r="AB67" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8453,10 +8451,10 @@
         <v>343</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>342</v>
@@ -8466,7 +8464,7 @@
         <v>341</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>340</v>
@@ -8485,15 +8483,15 @@
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S68" s="2">
         <v>1299</v>
@@ -8506,20 +8504,20 @@
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="2" t="s">
-        <v>508</v>
+        <v>840</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="Z68" s="2" t="s">
         <v>338</v>
       </c>
       <c r="AA68" s="1"/>
       <c r="AB68" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8527,10 +8525,10 @@
         <v>337</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>336</v>
@@ -8540,7 +8538,7 @@
         <v>124</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>335</v>
@@ -8559,15 +8557,15 @@
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S69" s="2">
         <v>1099</v>
@@ -8582,20 +8580,20 @@
         <v>334</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>504</v>
+        <v>851</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="Z69" s="2" t="s">
         <v>333</v>
       </c>
       <c r="AA69" s="1"/>
       <c r="AB69" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8603,10 +8601,10 @@
         <v>332</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>137</v>
@@ -8616,7 +8614,7 @@
         <v>331</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>330</v>
@@ -8635,15 +8633,15 @@
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S70" s="2">
         <v>1299</v>
@@ -8658,20 +8656,20 @@
         <v>329</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="Z70" s="2" t="s">
         <v>328</v>
       </c>
       <c r="AA70" s="1"/>
       <c r="AB70" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8679,10 +8677,10 @@
         <v>327</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>326</v>
@@ -8692,7 +8690,7 @@
         <v>325</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>324</v>
@@ -8711,15 +8709,15 @@
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S71" s="2">
         <v>1299</v>
@@ -8734,20 +8732,20 @@
         <v>323</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="Z71" s="2" t="s">
         <v>322</v>
       </c>
       <c r="AA71" s="1"/>
       <c r="AB71" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="72" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8755,10 +8753,10 @@
         <v>321</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>320</v>
@@ -8768,7 +8766,7 @@
         <v>229</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>319</v>
@@ -8787,15 +8785,15 @@
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S72" s="2">
         <v>799</v>
@@ -8810,20 +8808,20 @@
         <v>317</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="Z72" s="2" t="s">
         <v>316</v>
       </c>
       <c r="AA72" s="1"/>
       <c r="AB72" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8831,10 +8829,10 @@
         <v>315</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>314</v>
@@ -8844,7 +8842,7 @@
         <v>313</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>312</v>
@@ -8863,15 +8861,15 @@
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S73" s="2">
         <v>1299</v>
@@ -8884,20 +8882,20 @@
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="Z73" s="2" t="s">
         <v>311</v>
       </c>
       <c r="AA73" s="1"/>
       <c r="AB73" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8905,10 +8903,10 @@
         <v>310</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>309</v>
@@ -8918,7 +8916,7 @@
         <v>308</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>307</v>
@@ -8937,15 +8935,15 @@
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S74" s="2">
         <v>1299</v>
@@ -8958,20 +8956,20 @@
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="AA74" s="1"/>
       <c r="AB74" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8979,10 +8977,10 @@
         <v>306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>305</v>
@@ -8992,7 +8990,7 @@
         <v>304</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>303</v>
@@ -9011,15 +9009,15 @@
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S75" s="2">
         <v>1299</v>
@@ -9034,20 +9032,20 @@
         <v>301</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
       <c r="Z75" s="2" t="s">
         <v>300</v>
       </c>
       <c r="AA75" s="1"/>
       <c r="AB75" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9055,10 +9053,10 @@
         <v>299</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>298</v>
@@ -9067,10 +9065,10 @@
         <v>297</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>296</v>
@@ -9089,15 +9087,15 @@
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S76" s="2">
         <v>1299</v>
@@ -9112,20 +9110,20 @@
         <v>294</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="Z76" s="2" t="s">
         <v>293</v>
       </c>
       <c r="AA76" s="1"/>
       <c r="AB76" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9133,10 +9131,10 @@
         <v>292</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>291</v>
@@ -9148,7 +9146,7 @@
         <v>289</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>288</v>
@@ -9167,15 +9165,15 @@
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S77" s="2">
         <v>1299</v>
@@ -9190,20 +9188,20 @@
         <v>287</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="Z77" s="2" t="s">
         <v>286</v>
       </c>
       <c r="AA77" s="1"/>
       <c r="AB77" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="78" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9211,10 +9209,10 @@
         <v>285</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>284</v>
@@ -9224,7 +9222,7 @@
         <v>283</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>282</v>
@@ -9243,15 +9241,15 @@
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S78" s="2">
         <v>1099</v>
@@ -9266,20 +9264,20 @@
         <v>281</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>508</v>
+        <v>840</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="Z78" s="2" t="s">
         <v>280</v>
       </c>
       <c r="AA78" s="1"/>
       <c r="AB78" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9287,10 +9285,10 @@
         <v>279</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>137</v>
@@ -9300,7 +9298,7 @@
         <v>278</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>277</v>
@@ -9319,15 +9317,15 @@
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S79" s="2">
         <v>1499</v>
@@ -9342,20 +9340,20 @@
         <v>274</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="Z79" s="2" t="s">
         <v>273</v>
       </c>
       <c r="AA79" s="1"/>
       <c r="AB79" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9363,10 +9361,10 @@
         <v>272</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>271</v>
@@ -9378,7 +9376,7 @@
         <v>269</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>268</v>
@@ -9397,15 +9395,15 @@
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S80" s="2">
         <v>1299</v>
@@ -9420,20 +9418,20 @@
         <v>266</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="Z80" s="1" t="s">
         <v>265</v>
       </c>
       <c r="AA80" s="1"/>
       <c r="AB80" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9441,10 +9439,10 @@
         <v>264</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>263</v>
@@ -9454,7 +9452,7 @@
         <v>262</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>261</v>
@@ -9473,15 +9471,15 @@
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S81" s="2">
         <v>999</v>
@@ -9496,20 +9494,20 @@
         <v>259</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>504</v>
+        <v>851</v>
       </c>
       <c r="X81" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="Z81" s="2" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="AA81" s="1"/>
       <c r="AB81" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9517,10 +9515,10 @@
         <v>258</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>257</v>
@@ -9530,7 +9528,7 @@
         <v>256</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>255</v>
@@ -9549,15 +9547,15 @@
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S82" s="2">
         <v>1099</v>
@@ -9572,20 +9570,20 @@
         <v>253</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="Z82" s="2" t="s">
         <v>252</v>
       </c>
       <c r="AA82" s="1"/>
       <c r="AB82" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9593,10 +9591,10 @@
         <v>251</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>250</v>
@@ -9608,7 +9606,7 @@
         <v>45</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>249</v>
@@ -9627,15 +9625,15 @@
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S83" s="2">
         <v>1099</v>
@@ -9650,20 +9648,20 @@
         <v>247</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>504</v>
+        <v>851</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="Z83" s="2" t="s">
         <v>246</v>
       </c>
       <c r="AA83" s="1"/>
       <c r="AB83" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9671,10 +9669,10 @@
         <v>245</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>244</v>
@@ -9684,7 +9682,7 @@
         <v>243</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>242</v>
@@ -9703,15 +9701,15 @@
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S84" s="2">
         <v>1099</v>
@@ -9726,20 +9724,20 @@
         <v>240</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>507</v>
+        <v>854</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="Z84" s="2" t="s">
         <v>239</v>
       </c>
       <c r="AA84" s="1"/>
       <c r="AB84" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9747,10 +9745,10 @@
         <v>238</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>237</v>
@@ -9760,7 +9758,7 @@
         <v>236</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>235</v>
@@ -9779,15 +9777,15 @@
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S85" s="2">
         <v>1299</v>
@@ -9802,20 +9800,20 @@
         <v>233</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="Z85" s="2" t="s">
         <v>232</v>
       </c>
       <c r="AA85" s="1"/>
       <c r="AB85" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9823,10 +9821,10 @@
         <v>231</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>230</v>
@@ -9836,7 +9834,7 @@
         <v>229</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>228</v>
@@ -9855,15 +9853,15 @@
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S86" s="2">
         <v>1299</v>
@@ -9878,20 +9876,20 @@
         <v>226</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>503</v>
+        <v>855</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="Z86" s="2" t="s">
         <v>225</v>
       </c>
       <c r="AA86" s="1"/>
       <c r="AB86" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9899,10 +9897,10 @@
         <v>224</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>110</v>
@@ -9912,7 +9910,7 @@
         <v>223</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>222</v>
@@ -9931,15 +9929,15 @@
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="1" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="S87" s="2">
         <v>1299</v>
@@ -9954,46 +9952,46 @@
         <v>218</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>502</v>
+        <v>841</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="Z87" s="2" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="AA87" s="1"/>
       <c r="AB87" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="I88" s="1">
         <v>1</v>
@@ -10011,57 +10009,57 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S88" s="1">
         <v>499</v>
       </c>
       <c r="T88" s="3"/>
       <c r="U88" s="1" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="1" t="s">
-        <v>629</v>
+        <v>833</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="AA88" s="3" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AB88" s="8" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="I89" s="1">
         <v>5</v>
@@ -10079,7 +10077,7 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S89" s="1">
         <v>499</v>
@@ -10090,54 +10088,54 @@
       </c>
       <c r="V89" s="1"/>
       <c r="W89" s="1" t="s">
-        <v>630</v>
+        <v>834</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="AA89" s="3" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AB89" s="8" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>183</v>
@@ -10149,47 +10147,47 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S90" s="1">
         <v>499</v>
       </c>
       <c r="T90" s="3"/>
       <c r="U90" s="1" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="V90" s="1"/>
       <c r="W90" s="1" t="s">
-        <v>630</v>
+        <v>834</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="AA90" s="3" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AB90" s="8" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>36</v>
@@ -10198,16 +10196,16 @@
         <v>45</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="I91" s="1">
         <v>6</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>183</v>
@@ -10219,7 +10217,7 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S91" s="1">
         <v>499</v>
@@ -10230,48 +10228,48 @@
       </c>
       <c r="V91" s="1"/>
       <c r="W91" s="1" t="s">
-        <v>631</v>
+        <v>835</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="AA91" s="3" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AB91" s="8" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
@@ -10289,47 +10287,47 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S92" s="1">
         <v>499</v>
       </c>
       <c r="T92" s="3"/>
       <c r="U92" s="1" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="V92" s="1"/>
       <c r="W92" s="1" t="s">
-        <v>630</v>
+        <v>834</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="AA92" s="3" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AB92" s="8" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>45</v>
@@ -10338,10 +10336,10 @@
         <v>290</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="I93" s="1">
         <v>8</v>
@@ -10359,7 +10357,7 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S93" s="1">
         <v>499</v>
@@ -10370,50 +10368,50 @@
       </c>
       <c r="V93" s="1"/>
       <c r="W93" s="1" t="s">
-        <v>630</v>
+        <v>834</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="AA93" s="3" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AB93" s="8" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="I94" s="1">
         <v>12</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>183</v>
@@ -10425,7 +10423,7 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S94" s="1">
         <v>499</v>
@@ -10436,46 +10434,46 @@
       </c>
       <c r="V94" s="1"/>
       <c r="W94" s="1" t="s">
-        <v>631</v>
+        <v>835</v>
       </c>
       <c r="X94" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="Z94" s="1" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="AA94" s="3" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AB94" s="8" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="I95" s="1">
         <v>3</v>
@@ -10493,7 +10491,7 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S95" s="1">
         <v>499</v>
@@ -10502,36 +10500,36 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1" t="s">
-        <v>630</v>
+        <v>834</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="AA95" s="3" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AB95" s="8" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>149</v>
@@ -10540,10 +10538,10 @@
         <v>45</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="I96" s="1">
         <v>6</v>
@@ -10561,44 +10559,44 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S96" s="1">
         <v>499</v>
       </c>
       <c r="T96" s="3"/>
       <c r="U96" s="1" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="V96" s="1"/>
       <c r="W96" s="1" t="s">
-        <v>631</v>
+        <v>835</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="AA96" s="3" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AB96" s="8" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>114</v>
@@ -10607,13 +10605,13 @@
         <v>36</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="I97" s="1">
         <v>2</v>
@@ -10631,59 +10629,59 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S97" s="1">
         <v>499</v>
       </c>
       <c r="T97" s="3"/>
       <c r="U97" s="1" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="V97" s="1"/>
       <c r="W97" s="1" t="s">
-        <v>630</v>
+        <v>834</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AA97" s="3" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AB97" s="8" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="I98" s="14">
         <v>9</v>
@@ -10699,57 +10697,57 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S98" s="1">
         <v>499</v>
       </c>
       <c r="T98" s="14"/>
       <c r="U98" s="14" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="V98" s="13"/>
       <c r="W98" s="14" t="s">
-        <v>603</v>
+        <v>836</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="Z98" s="14" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AA98" s="14"/>
       <c r="AB98" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="I99" s="14">
         <v>4</v>
@@ -10765,7 +10763,7 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S99" s="1">
         <v>499</v>
@@ -10774,44 +10772,44 @@
       <c r="U99" s="14"/>
       <c r="V99" s="13"/>
       <c r="W99" s="14" t="s">
-        <v>603</v>
+        <v>836</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y99" s="1" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="Z99" s="14" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AA99" s="14"/>
       <c r="AB99" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>270</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="I100" s="14">
         <v>9</v>
@@ -10827,7 +10825,7 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S100" s="1">
         <v>499</v>
@@ -10836,44 +10834,44 @@
       <c r="U100" s="14"/>
       <c r="V100" s="13"/>
       <c r="W100" s="14" t="s">
-        <v>604</v>
+        <v>837</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="Z100" s="14" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="AA100" s="14"/>
       <c r="AB100" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="I101" s="14">
         <v>7</v>
@@ -10889,7 +10887,7 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S101" s="1">
         <v>499</v>
@@ -10898,46 +10896,46 @@
       <c r="U101" s="14"/>
       <c r="V101" s="13"/>
       <c r="W101" s="14" t="s">
-        <v>603</v>
+        <v>836</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="Z101" s="14" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="AA101" s="14"/>
       <c r="AB101" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>230</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="I102" s="14">
         <v>6</v>
@@ -10953,7 +10951,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S102" s="1">
         <v>499</v>
@@ -10962,46 +10960,46 @@
       <c r="U102" s="14"/>
       <c r="V102" s="13"/>
       <c r="W102" s="14" t="s">
-        <v>604</v>
+        <v>837</v>
       </c>
       <c r="X102" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y102" s="1" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="Z102" s="14" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="AA102" s="14"/>
       <c r="AB102" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="I103" s="14">
         <v>6</v>
@@ -11017,7 +11015,7 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="S103" s="1">
         <v>499</v>
@@ -11026,20 +11024,20 @@
       <c r="U103" s="14"/>
       <c r="V103" s="13"/>
       <c r="W103" s="14" t="s">
-        <v>602</v>
+        <v>838</v>
       </c>
       <c r="X103" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="Z103" s="14" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="AA103" s="14"/>
       <c r="AB103" s="8" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16361,19 +16359,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -16381,16 +16379,16 @@
         <v>497</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16398,16 +16396,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -16415,16 +16413,16 @@
         <v>200</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16432,16 +16430,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16449,33 +16447,33 @@
         <v>9</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16483,33 +16481,33 @@
         <v>201</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16523,10 +16521,10 @@
         <v>389</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16534,16 +16532,16 @@
         <v>382</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16551,16 +16549,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16568,16 +16566,16 @@
         <v>0</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -16585,16 +16583,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16602,16 +16600,16 @@
         <v>198</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16619,33 +16617,33 @@
         <v>199</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>815</v>
+        <v>792</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16653,16 +16651,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16670,16 +16668,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -16687,16 +16685,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16704,16 +16702,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16721,16 +16719,16 @@
         <v>202</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -16738,16 +16736,16 @@
         <v>276</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -16755,33 +16753,33 @@
         <v>6</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>

--- a/data/doctorsData.xlsx
+++ b/data/doctorsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\apollo-hospitals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0881B684-A3A2-4F33-AA74-776D1BFF4F74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076B902B-E382-403A-8CEA-DA77E147511F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2599,9 +2599,6 @@
     <t>09:00 AM - 05:00 PM</t>
   </si>
   <si>
-    <t>08:00 PM - 08:00 AM</t>
-  </si>
-  <si>
     <t>06:00 PM - 07:00 PM</t>
   </si>
   <si>
@@ -2652,6 +2649,9 @@
   </si>
   <si>
     <t>11:00 AM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>08:00 AM - 08:00 PM</t>
   </si>
 </sst>
 </file>
@@ -3174,7 +3174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB980"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="U94" workbookViewId="0">
+      <selection activeCell="W104" sqref="W104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3348,7 +3350,7 @@
         <v>33</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>607</v>
@@ -3426,7 +3428,7 @@
         <v>38</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>607</v>
@@ -3506,7 +3508,7 @@
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>607</v>
@@ -3588,7 +3590,7 @@
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>607</v>
@@ -3668,7 +3670,7 @@
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>607</v>
@@ -3750,7 +3752,7 @@
         <v>54</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>607</v>
@@ -3830,7 +3832,7 @@
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>607</v>
@@ -3910,7 +3912,7 @@
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>607</v>
@@ -3992,7 +3994,7 @@
         <v>67</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>607</v>
@@ -4072,7 +4074,7 @@
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>607</v>
@@ -4150,7 +4152,7 @@
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>607</v>
@@ -4230,7 +4232,7 @@
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>607</v>
@@ -4310,7 +4312,7 @@
         <v>84</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>607</v>
@@ -4394,7 +4396,7 @@
         <v>89</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>607</v>
@@ -4476,7 +4478,7 @@
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>607</v>
@@ -4556,7 +4558,7 @@
         <v>97</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>607</v>
@@ -4640,7 +4642,7 @@
         <v>54</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>607</v>
@@ -4720,7 +4722,7 @@
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>607</v>
@@ -4804,7 +4806,7 @@
         <v>112</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>607</v>
@@ -4886,7 +4888,7 @@
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>607</v>
@@ -4968,7 +4970,7 @@
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>607</v>
@@ -5046,7 +5048,7 @@
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>607</v>
@@ -5126,7 +5128,7 @@
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>607</v>
@@ -5208,7 +5210,7 @@
         <v>134</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>607</v>
@@ -5292,7 +5294,7 @@
         <v>139</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>607</v>
@@ -5374,7 +5376,7 @@
         <v>143</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>607</v>
@@ -5452,7 +5454,7 @@
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>607</v>
@@ -5532,7 +5534,7 @@
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>608</v>
@@ -5614,7 +5616,7 @@
         <v>156</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>607</v>
@@ -5694,7 +5696,7 @@
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>607</v>
@@ -5774,7 +5776,7 @@
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>607</v>
@@ -5854,7 +5856,7 @@
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>607</v>
@@ -5934,7 +5936,7 @@
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>607</v>
@@ -6012,7 +6014,7 @@
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>607</v>
@@ -6092,7 +6094,7 @@
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>607</v>
@@ -6170,7 +6172,7 @@
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>607</v>
@@ -6244,7 +6246,7 @@
         <v>496</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>607</v>
@@ -6318,7 +6320,7 @@
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>607</v>
@@ -6394,7 +6396,7 @@
         <v>485</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>607</v>
@@ -6470,7 +6472,7 @@
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>607</v>
@@ -6544,7 +6546,7 @@
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>607</v>
@@ -6618,7 +6620,7 @@
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>607</v>
@@ -6692,7 +6694,7 @@
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>607</v>
@@ -6768,7 +6770,7 @@
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>607</v>
@@ -6842,7 +6844,7 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>607</v>
@@ -6918,7 +6920,7 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>607</v>
@@ -6992,7 +6994,7 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>607</v>
@@ -7066,7 +7068,7 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>607</v>
@@ -7140,7 +7142,7 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>607</v>
@@ -7214,7 +7216,7 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>607</v>
@@ -7290,7 +7292,7 @@
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>607</v>
@@ -7364,7 +7366,7 @@
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>607</v>
@@ -7440,7 +7442,7 @@
         <v>422</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>607</v>
@@ -7518,7 +7520,7 @@
         <v>416</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>607</v>
@@ -7594,7 +7596,7 @@
         <v>411</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>607</v>
@@ -7666,7 +7668,7 @@
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>607</v>
@@ -7744,7 +7746,7 @@
         <v>400</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>607</v>
@@ -7822,7 +7824,7 @@
         <v>394</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>607</v>
@@ -7898,7 +7900,7 @@
         <v>388</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>607</v>
@@ -7974,7 +7976,7 @@
         <v>381</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>607</v>
@@ -8050,7 +8052,7 @@
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>607</v>
@@ -8128,7 +8130,7 @@
         <v>369</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>607</v>
@@ -8204,7 +8206,7 @@
         <v>364</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X64" s="1" t="s">
         <v>607</v>
@@ -8278,7 +8280,7 @@
         <v>359</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>607</v>
@@ -8354,7 +8356,7 @@
         <v>352</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>607</v>
@@ -8430,7 +8432,7 @@
         <v>345</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>607</v>
@@ -8504,7 +8506,7 @@
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X68" s="1" t="s">
         <v>607</v>
@@ -8580,7 +8582,7 @@
         <v>334</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="X69" s="1" t="s">
         <v>607</v>
@@ -8656,7 +8658,7 @@
         <v>329</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X70" s="1" t="s">
         <v>607</v>
@@ -8732,7 +8734,7 @@
         <v>323</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X71" s="1" t="s">
         <v>607</v>
@@ -8808,7 +8810,7 @@
         <v>317</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X72" s="1" t="s">
         <v>607</v>
@@ -8882,7 +8884,7 @@
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X73" s="1" t="s">
         <v>607</v>
@@ -8956,7 +8958,7 @@
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X74" s="1" t="s">
         <v>607</v>
@@ -9032,7 +9034,7 @@
         <v>301</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X75" s="1" t="s">
         <v>607</v>
@@ -9110,7 +9112,7 @@
         <v>294</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X76" s="1" t="s">
         <v>607</v>
@@ -9188,7 +9190,7 @@
         <v>287</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>607</v>
@@ -9264,7 +9266,7 @@
         <v>281</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X78" s="1" t="s">
         <v>607</v>
@@ -9340,7 +9342,7 @@
         <v>274</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X79" s="1" t="s">
         <v>607</v>
@@ -9418,7 +9420,7 @@
         <v>266</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X80" s="1" t="s">
         <v>607</v>
@@ -9494,7 +9496,7 @@
         <v>259</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="X81" s="1" t="s">
         <v>607</v>
@@ -9570,7 +9572,7 @@
         <v>253</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X82" s="1" t="s">
         <v>607</v>
@@ -9648,7 +9650,7 @@
         <v>247</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="X83" s="1" t="s">
         <v>607</v>
@@ -9724,7 +9726,7 @@
         <v>240</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X84" s="1" t="s">
         <v>607</v>
@@ -9800,7 +9802,7 @@
         <v>233</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X85" s="1" t="s">
         <v>607</v>
@@ -9876,7 +9878,7 @@
         <v>226</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X86" s="1" t="s">
         <v>607</v>
@@ -9952,7 +9954,7 @@
         <v>218</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>606</v>
@@ -11024,7 +11026,7 @@
       <c r="U103" s="14"/>
       <c r="V103" s="13"/>
       <c r="W103" s="14" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="X103" s="1" t="s">
         <v>606</v>

--- a/data/doctorsData.xlsx
+++ b/data/doctorsData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\apollo-hospitals\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sushma Voleti\apolloHospitals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076B902B-E382-403A-8CEA-DA77E147511F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6471705F-EA45-47FF-BAC9-1DE692376BE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -2572,9 +2572,6 @@
     <t>DR</t>
   </si>
   <si>
-    <t>FEMALEALE</t>
-  </si>
-  <si>
     <t>MALE</t>
   </si>
   <si>
@@ -2652,6 +2649,9 @@
   </si>
   <si>
     <t>08:00 AM - 08:00 PM</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
   </si>
 </sst>
 </file>
@@ -3174,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U94" workbookViewId="0">
-      <selection activeCell="W104" sqref="W104"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3302,7 +3302,7 @@
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
@@ -3350,7 +3350,7 @@
         <v>33</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>607</v>
@@ -3380,7 +3380,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>37</v>
@@ -3428,7 +3428,7 @@
         <v>38</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>607</v>
@@ -3462,7 +3462,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>42</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>607</v>
@@ -3544,7 +3544,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>46</v>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>607</v>
@@ -3624,7 +3624,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>50</v>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>607</v>
@@ -3704,7 +3704,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>53</v>
@@ -3752,7 +3752,7 @@
         <v>54</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>607</v>
@@ -3786,7 +3786,7 @@
         <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>59</v>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>607</v>
@@ -3866,7 +3866,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>37</v>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>607</v>
@@ -3946,7 +3946,7 @@
         <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>66</v>
@@ -3994,7 +3994,7 @@
         <v>67</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>607</v>
@@ -4028,7 +4028,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>71</v>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>607</v>
@@ -4106,7 +4106,7 @@
         <v>74</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>75</v>
@@ -4115,7 +4115,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>189</v>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>607</v>
@@ -4186,7 +4186,7 @@
         <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>80</v>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>607</v>
@@ -4264,7 +4264,7 @@
         <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>83</v>
@@ -4312,7 +4312,7 @@
         <v>84</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>607</v>
@@ -4348,7 +4348,7 @@
         <v>87</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>88</v>
@@ -4396,7 +4396,7 @@
         <v>89</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>607</v>
@@ -4432,7 +4432,7 @@
         <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>93</v>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>607</v>
@@ -4510,7 +4510,7 @@
         <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>96</v>
@@ -4558,7 +4558,7 @@
         <v>97</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>607</v>
@@ -4594,7 +4594,7 @@
         <v>101</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>102</v>
@@ -4642,7 +4642,7 @@
         <v>54</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>607</v>
@@ -4676,7 +4676,7 @@
         <v>105</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>106</v>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>607</v>
@@ -4758,7 +4758,7 @@
         <v>110</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>111</v>
@@ -4806,7 +4806,7 @@
         <v>112</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>607</v>
@@ -4842,7 +4842,7 @@
         <v>115</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>116</v>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>607</v>
@@ -4924,7 +4924,7 @@
         <v>120</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>121</v>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>607</v>
@@ -5002,7 +5002,7 @@
         <v>124</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>125</v>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>607</v>
@@ -5082,7 +5082,7 @@
         <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>129</v>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>607</v>
@@ -5162,7 +5162,7 @@
         <v>132</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>133</v>
@@ -5210,7 +5210,7 @@
         <v>134</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>607</v>
@@ -5246,7 +5246,7 @@
         <v>45</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>138</v>
@@ -5294,7 +5294,7 @@
         <v>139</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>607</v>
@@ -5328,7 +5328,7 @@
         <v>45</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>142</v>
@@ -5337,7 +5337,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>188</v>
@@ -5376,7 +5376,7 @@
         <v>143</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>607</v>
@@ -5408,7 +5408,7 @@
         <v>146</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>147</v>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>607</v>
@@ -5488,7 +5488,7 @@
         <v>150</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>151</v>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>608</v>
@@ -5568,7 +5568,7 @@
         <v>154</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>155</v>
@@ -5616,7 +5616,7 @@
         <v>156</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>607</v>
@@ -5650,7 +5650,7 @@
         <v>159</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>160</v>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>607</v>
@@ -5730,7 +5730,7 @@
         <v>36</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>163</v>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>607</v>
@@ -5810,7 +5810,7 @@
         <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>166</v>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>607</v>
@@ -5890,7 +5890,7 @@
         <v>168</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>169</v>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>607</v>
@@ -5968,7 +5968,7 @@
         <v>172</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>173</v>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>607</v>
@@ -6048,7 +6048,7 @@
         <v>176</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>177</v>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>607</v>
@@ -6126,7 +6126,7 @@
         <v>180</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>181</v>
@@ -6135,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>188</v>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>607</v>
@@ -6204,7 +6204,7 @@
         <v>499</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>498</v>
@@ -6246,7 +6246,7 @@
         <v>496</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>607</v>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>491</v>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>607</v>
@@ -6354,7 +6354,7 @@
         <v>487</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>486</v>
@@ -6396,7 +6396,7 @@
         <v>485</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>607</v>
@@ -6432,7 +6432,7 @@
         <v>483</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>482</v>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>607</v>
@@ -6506,7 +6506,7 @@
         <v>314</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>477</v>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>607</v>
@@ -6580,7 +6580,7 @@
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>473</v>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>607</v>
@@ -6654,7 +6654,7 @@
         <v>469</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>163</v>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>607</v>
@@ -6730,7 +6730,7 @@
         <v>236</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>464</v>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>607</v>
@@ -6804,7 +6804,7 @@
         <v>459</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>458</v>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>607</v>
@@ -6880,7 +6880,7 @@
         <v>437</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>454</v>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>607</v>
@@ -6954,7 +6954,7 @@
         <v>451</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>450</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>607</v>
@@ -7028,7 +7028,7 @@
         <v>447</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>446</v>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>607</v>
@@ -7102,7 +7102,7 @@
         <v>442</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>441</v>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>607</v>
@@ -7176,7 +7176,7 @@
         <v>437</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>436</v>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>607</v>
@@ -7252,7 +7252,7 @@
         <v>431</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>430</v>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>607</v>
@@ -7326,7 +7326,7 @@
         <v>137</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>426</v>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>607</v>
@@ -7400,7 +7400,7 @@
         <v>223</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>423</v>
@@ -7442,7 +7442,7 @@
         <v>422</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>607</v>
@@ -7478,7 +7478,7 @@
         <v>418</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>417</v>
@@ -7520,7 +7520,7 @@
         <v>416</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>607</v>
@@ -7554,7 +7554,7 @@
         <v>413</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>412</v>
@@ -7596,7 +7596,7 @@
         <v>411</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>607</v>
@@ -7628,7 +7628,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>407</v>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>607</v>
@@ -7704,7 +7704,7 @@
         <v>45</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>402</v>
@@ -7746,7 +7746,7 @@
         <v>400</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>607</v>
@@ -7782,7 +7782,7 @@
         <v>396</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>395</v>
@@ -7824,7 +7824,7 @@
         <v>394</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>607</v>
@@ -7858,7 +7858,7 @@
         <v>271</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>390</v>
@@ -7900,7 +7900,7 @@
         <v>388</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>607</v>
@@ -7934,7 +7934,7 @@
         <v>384</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>383</v>
@@ -7976,7 +7976,7 @@
         <v>381</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>607</v>
@@ -8012,7 +8012,7 @@
         <v>376</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>375</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>607</v>
@@ -8088,7 +8088,7 @@
         <v>372</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>371</v>
@@ -8130,7 +8130,7 @@
         <v>369</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>607</v>
@@ -8164,7 +8164,7 @@
         <v>366</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>365</v>
@@ -8206,7 +8206,7 @@
         <v>364</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X64" s="1" t="s">
         <v>607</v>
@@ -8238,7 +8238,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>360</v>
@@ -8280,7 +8280,7 @@
         <v>359</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>607</v>
@@ -8314,7 +8314,7 @@
         <v>355</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>354</v>
@@ -8356,7 +8356,7 @@
         <v>352</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>607</v>
@@ -8390,7 +8390,7 @@
         <v>348</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>347</v>
@@ -8432,7 +8432,7 @@
         <v>345</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>607</v>
@@ -8466,7 +8466,7 @@
         <v>341</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>340</v>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X68" s="1" t="s">
         <v>607</v>
@@ -8540,7 +8540,7 @@
         <v>124</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>335</v>
@@ -8582,7 +8582,7 @@
         <v>334</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X69" s="1" t="s">
         <v>607</v>
@@ -8616,7 +8616,7 @@
         <v>331</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>330</v>
@@ -8658,7 +8658,7 @@
         <v>329</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X70" s="1" t="s">
         <v>607</v>
@@ -8692,7 +8692,7 @@
         <v>325</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>324</v>
@@ -8734,7 +8734,7 @@
         <v>323</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X71" s="1" t="s">
         <v>607</v>
@@ -8768,7 +8768,7 @@
         <v>229</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>319</v>
@@ -8810,7 +8810,7 @@
         <v>317</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X72" s="1" t="s">
         <v>607</v>
@@ -8844,7 +8844,7 @@
         <v>313</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>312</v>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X73" s="1" t="s">
         <v>607</v>
@@ -8918,7 +8918,7 @@
         <v>308</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>307</v>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X74" s="1" t="s">
         <v>607</v>
@@ -8992,7 +8992,7 @@
         <v>304</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>303</v>
@@ -9034,7 +9034,7 @@
         <v>301</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X75" s="1" t="s">
         <v>607</v>
@@ -9070,7 +9070,7 @@
         <v>552</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>296</v>
@@ -9112,7 +9112,7 @@
         <v>294</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X76" s="1" t="s">
         <v>607</v>
@@ -9148,7 +9148,7 @@
         <v>289</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>288</v>
@@ -9190,7 +9190,7 @@
         <v>287</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>607</v>
@@ -9224,7 +9224,7 @@
         <v>283</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>282</v>
@@ -9266,7 +9266,7 @@
         <v>281</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X78" s="1" t="s">
         <v>607</v>
@@ -9300,7 +9300,7 @@
         <v>278</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>277</v>
@@ -9342,7 +9342,7 @@
         <v>274</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="X79" s="1" t="s">
         <v>607</v>
@@ -9378,7 +9378,7 @@
         <v>269</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>268</v>
@@ -9420,7 +9420,7 @@
         <v>266</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X80" s="1" t="s">
         <v>607</v>
@@ -9454,7 +9454,7 @@
         <v>262</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>261</v>
@@ -9496,7 +9496,7 @@
         <v>259</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X81" s="1" t="s">
         <v>607</v>
@@ -9530,7 +9530,7 @@
         <v>256</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>255</v>
@@ -9572,7 +9572,7 @@
         <v>253</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X82" s="1" t="s">
         <v>607</v>
@@ -9608,7 +9608,7 @@
         <v>45</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>249</v>
@@ -9650,7 +9650,7 @@
         <v>247</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X83" s="1" t="s">
         <v>607</v>
@@ -9684,7 +9684,7 @@
         <v>243</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>242</v>
@@ -9726,7 +9726,7 @@
         <v>240</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="X84" s="1" t="s">
         <v>607</v>
@@ -9760,7 +9760,7 @@
         <v>236</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>235</v>
@@ -9802,7 +9802,7 @@
         <v>233</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X85" s="1" t="s">
         <v>607</v>
@@ -9836,7 +9836,7 @@
         <v>229</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>228</v>
@@ -9878,7 +9878,7 @@
         <v>226</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="X86" s="1" t="s">
         <v>607</v>
@@ -9912,7 +9912,7 @@
         <v>223</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>222</v>
@@ -9954,7 +9954,7 @@
         <v>218</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>606</v>
@@ -9990,7 +9990,7 @@
         <v>505</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>526</v>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="X88" s="1" t="s">
         <v>606</v>
@@ -10058,7 +10058,7 @@
         <v>508</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>526</v>
@@ -10090,7 +10090,7 @@
       </c>
       <c r="V89" s="1"/>
       <c r="W89" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="X89" s="1" t="s">
         <v>606</v>
@@ -10128,7 +10128,7 @@
         <v>511</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>527</v>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="V90" s="1"/>
       <c r="W90" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="X90" s="1" t="s">
         <v>606</v>
@@ -10198,7 +10198,7 @@
         <v>45</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>527</v>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="V91" s="1"/>
       <c r="W91" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X91" s="1" t="s">
         <v>606</v>
@@ -10268,7 +10268,7 @@
         <v>517</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>529</v>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="V92" s="1"/>
       <c r="W92" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="X92" s="1" t="s">
         <v>606</v>
@@ -10338,7 +10338,7 @@
         <v>290</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>530</v>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="V93" s="1"/>
       <c r="W93" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="X93" s="1" t="s">
         <v>606</v>
@@ -10404,7 +10404,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>531</v>
@@ -10436,7 +10436,7 @@
       </c>
       <c r="V94" s="1"/>
       <c r="W94" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X94" s="1" t="s">
         <v>606</v>
@@ -10472,7 +10472,7 @@
         <v>555</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>558</v>
@@ -10502,7 +10502,7 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="X95" s="1" t="s">
         <v>606</v>
@@ -10540,7 +10540,7 @@
         <v>45</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>533</v>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="V96" s="1"/>
       <c r="W96" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X96" s="1" t="s">
         <v>606</v>
@@ -10610,7 +10610,7 @@
         <v>525</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>533</v>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="V97" s="1"/>
       <c r="W97" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="X97" s="1" t="s">
         <v>606</v>
@@ -10680,7 +10680,7 @@
         <v>570</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>531</v>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="V98" s="13"/>
       <c r="W98" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="X98" s="1" t="s">
         <v>606</v>
@@ -10746,7 +10746,7 @@
         <v>571</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>531</v>
@@ -10774,7 +10774,7 @@
       <c r="U99" s="14"/>
       <c r="V99" s="13"/>
       <c r="W99" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="X99" s="1" t="s">
         <v>606</v>
@@ -10808,7 +10808,7 @@
         <v>572</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>531</v>
@@ -10836,7 +10836,7 @@
       <c r="U100" s="14"/>
       <c r="V100" s="13"/>
       <c r="W100" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="X100" s="1" t="s">
         <v>606</v>
@@ -10870,7 +10870,7 @@
         <v>573</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>531</v>
@@ -10898,7 +10898,7 @@
       <c r="U101" s="14"/>
       <c r="V101" s="13"/>
       <c r="W101" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="X101" s="1" t="s">
         <v>606</v>
@@ -10934,7 +10934,7 @@
         <v>574</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>531</v>
@@ -10962,7 +10962,7 @@
       <c r="U102" s="14"/>
       <c r="V102" s="13"/>
       <c r="W102" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="X102" s="1" t="s">
         <v>606</v>
@@ -10998,7 +10998,7 @@
         <v>575</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>531</v>
@@ -11026,7 +11026,7 @@
       <c r="U103" s="14"/>
       <c r="V103" s="13"/>
       <c r="W103" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="X103" s="1" t="s">
         <v>606</v>
